--- a/HistonesXenopus_results.xlsx
+++ b/HistonesXenopus_results.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.schuh/Documents/GitHub/HistonesXenopus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.schuh/Documents/GitHub/marrlab/HistonesXenopus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A555A8F-7056-B348-B693-838B01DC53D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332CDDD9-DB35-2649-893A-9DDB5D24C7B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="480" windowWidth="27180" windowHeight="16160" activeTab="4" xr2:uid="{BBDED220-849E-C84B-A5AC-3A5366055C07}"/>
+    <workbookView xWindow="1620" yWindow="480" windowWidth="27180" windowHeight="16160" activeTab="4" xr2:uid="{BBDED220-849E-C84B-A5AC-3A5366055C07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="HUA" sheetId="1" r:id="rId1"/>
+    <sheet name="mock" sheetId="2" r:id="rId2"/>
+    <sheet name="HUA data - mock model" sheetId="3" r:id="rId3"/>
+    <sheet name="joint" sheetId="4" r:id="rId4"/>
+    <sheet name="mock data - HUA model" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1166,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC4CCB-3522-B443-8ADE-69268C892371}">
   <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
@@ -5702,7 +5702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B42900B-7B28-B740-9017-BB8A19B8F6AB}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
@@ -8977,7 +8977,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/HistonesXenopus_results.xlsx
+++ b/HistonesXenopus_results.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.schuh/Documents/GitHub/marrlab/HistonesXenopus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.schuh/Documents/GitHub/HistonesXenopus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332CDDD9-DB35-2649-893A-9DDB5D24C7B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FC4A6-7011-394A-ABFE-AD1074E1ED88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="480" windowWidth="27180" windowHeight="16160" activeTab="4" xr2:uid="{BBDED220-849E-C84B-A5AC-3A5366055C07}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="27180" windowHeight="16040" activeTab="2" xr2:uid="{BBDED220-849E-C84B-A5AC-3A5366055C07}"/>
   </bookViews>
   <sheets>
-    <sheet name="HUA" sheetId="1" r:id="rId1"/>
-    <sheet name="mock" sheetId="2" r:id="rId2"/>
-    <sheet name="HUA data - mock model" sheetId="3" r:id="rId3"/>
-    <sheet name="joint" sheetId="4" r:id="rId4"/>
-    <sheet name="mock data - HUA model" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>HUA</t>
   </si>
@@ -61,22 +60,10 @@
     <t>&lt;d(t)&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">mock - linearly increasing without fixed offset - Laplacian </t>
-  </si>
-  <si>
-    <t>mock - Hill function with Hill coefficient 1 without fixed offset - Laplacian</t>
-  </si>
-  <si>
-    <t>HUA data - mock model</t>
-  </si>
-  <si>
     <t>joint model - mock&amp;HUA</t>
   </si>
   <si>
     <t>mock&amp;HUA - Laplacian</t>
-  </si>
-  <si>
-    <t>mock data - HUA model</t>
   </si>
   <si>
     <t>mock -Hill function with Hill coefficient 1 with fixed offset  = 0.5, constrained - Laplacian - no demethylation</t>
@@ -131,6 +118,33 @@
   </si>
   <si>
     <t>not completely converged</t>
+  </si>
+  <si>
+    <t>me0_0 = 0.1</t>
+  </si>
+  <si>
+    <t>me1_0</t>
+  </si>
+  <si>
+    <t>me2_0</t>
+  </si>
+  <si>
+    <t>me3_0</t>
+  </si>
+  <si>
+    <t>me0_0</t>
+  </si>
+  <si>
+    <t>me0_0 = 0.01</t>
+  </si>
+  <si>
+    <t>me0_0 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC </t>
+  </si>
+  <si>
+    <t>mock -Hill function with inferred Hill coefficient with fixed offset  = 0.5, constrained - Laplacian - no demethylation</t>
   </si>
 </sst>
 </file>
@@ -199,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -214,6 +228,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +548,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +561,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -557,7 +574,7 @@
       <c r="I3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1164,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC4CCB-3522-B443-8ADE-69268C892371}">
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1210,7 @@
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1207,7 +1224,7 @@
       <c r="K3" s="2"/>
       <c r="M3" s="5"/>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1803,7 +1820,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1834,21 +1851,11 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-24.571899999999999</v>
-      </c>
-      <c r="D34" s="1">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1">
-        <v>73.956000000000003</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1857,21 +1864,11 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2.7812999999999999</v>
-      </c>
-      <c r="C35" s="1">
-        <v>-21.790600000000001</v>
-      </c>
-      <c r="D35" s="1">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1">
-        <v>87.483999999999995</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1880,21 +1877,11 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3.6840999999999999</v>
-      </c>
-      <c r="C36" s="1">
-        <v>-20.887799999999999</v>
-      </c>
-      <c r="D36" s="1">
-        <v>24</v>
-      </c>
-      <c r="E36" s="1">
-        <v>48.524000000000001</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1903,21 +1890,11 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3.8976000000000002</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-20.674299999999999</v>
-      </c>
-      <c r="D37" s="1">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1">
-        <v>81.626999999999995</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1926,21 +1903,11 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5.3129999999999997</v>
-      </c>
-      <c r="C38" s="1">
-        <v>-19.258900000000001</v>
-      </c>
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>119.8</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1949,21 +1916,11 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5.6874000000000002</v>
-      </c>
-      <c r="C39" s="1">
-        <v>-18.884499999999999</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
-        <v>74.120999999999995</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1971,21 +1928,11 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3">
-        <v>6.2386999999999997</v>
-      </c>
-      <c r="C40" s="3">
-        <v>-18.333200000000001</v>
-      </c>
-      <c r="D40" s="3">
-        <v>25</v>
-      </c>
-      <c r="E40" s="3">
-        <v>97.677999999999997</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1993,21 +1940,11 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3">
-        <v>8.7860999999999994</v>
-      </c>
-      <c r="C41" s="3">
-        <v>-15.7858</v>
-      </c>
-      <c r="D41" s="3">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3">
-        <v>97.316999999999993</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2015,21 +1952,6 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>10.376799999999999</v>
-      </c>
-      <c r="C42">
-        <v>-14.1951</v>
-      </c>
-      <c r="D42">
-        <v>19</v>
-      </c>
-      <c r="E42">
-        <v>19.821999999999999</v>
-      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2037,21 +1959,6 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>12.4152</v>
-      </c>
-      <c r="C43">
-        <v>-12.1568</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>19.835999999999999</v>
-      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2059,21 +1966,6 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>25.3948</v>
-      </c>
-      <c r="C44">
-        <v>0.82289999999999996</v>
-      </c>
-      <c r="D44">
-        <v>18</v>
-      </c>
-      <c r="E44">
-        <v>94.88</v>
-      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2081,21 +1973,6 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>25.512799999999999</v>
-      </c>
-      <c r="C45">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="D45">
-        <v>17</v>
-      </c>
-      <c r="E45">
-        <v>102.07</v>
-      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2103,21 +1980,6 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>25.534500000000001</v>
-      </c>
-      <c r="C46">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="D46">
-        <v>21</v>
-      </c>
-      <c r="E46">
-        <v>72.046000000000006</v>
-      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2125,21 +1987,7 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>25.957100000000001</v>
-      </c>
-      <c r="C47">
-        <v>1.3852</v>
-      </c>
-      <c r="D47">
-        <v>23</v>
-      </c>
-      <c r="E47" s="6">
-        <v>7487300</v>
-      </c>
+      <c r="E47" s="6"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2147,21 +1995,7 @@
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>27.2822</v>
-      </c>
-      <c r="C48">
-        <v>2.7103000000000002</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48" s="6">
-        <v>27181000</v>
-      </c>
+      <c r="E48" s="6"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2169,21 +2003,6 @@
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>28.431799999999999</v>
-      </c>
-      <c r="C49">
-        <v>3.8599000000000001</v>
-      </c>
-      <c r="D49">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>43.825000000000003</v>
-      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2191,21 +2010,7 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>28.625499999999999</v>
-      </c>
-      <c r="C50">
-        <v>4.0534999999999997</v>
-      </c>
-      <c r="D50">
-        <v>13</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1876100000</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2213,21 +2018,6 @@
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <v>29.097000000000001</v>
-      </c>
-      <c r="C51">
-        <v>4.5251000000000001</v>
-      </c>
-      <c r="D51">
-        <v>22</v>
-      </c>
-      <c r="E51">
-        <v>95.739000000000004</v>
-      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2235,21 +2025,6 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>19</v>
-      </c>
-      <c r="B52">
-        <v>29.721800000000002</v>
-      </c>
-      <c r="C52">
-        <v>5.1498999999999997</v>
-      </c>
-      <c r="D52">
-        <v>16</v>
-      </c>
-      <c r="E52">
-        <v>19.827000000000002</v>
-      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2257,21 +2032,7 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>20</v>
-      </c>
-      <c r="B53">
-        <v>30.133299999999998</v>
-      </c>
-      <c r="C53">
-        <v>5.5613999999999999</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6">
-        <v>442010</v>
-      </c>
+      <c r="E53" s="6"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2279,21 +2040,7 @@
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>21</v>
-      </c>
-      <c r="B54">
-        <v>53.241799999999998</v>
-      </c>
-      <c r="C54">
-        <v>28.669899999999998</v>
-      </c>
-      <c r="D54">
-        <v>11</v>
-      </c>
-      <c r="E54" s="6">
-        <v>4688900000</v>
-      </c>
+      <c r="E54" s="6"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2301,21 +2048,7 @@
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>22</v>
-      </c>
-      <c r="B55">
-        <v>54.191000000000003</v>
-      </c>
-      <c r="C55">
-        <v>29.6191</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55" s="6">
-        <v>9892200</v>
-      </c>
+      <c r="E55" s="6"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2323,21 +2056,7 @@
       <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>23</v>
-      </c>
-      <c r="B56">
-        <v>54.419199999999996</v>
-      </c>
-      <c r="C56">
-        <v>29.847300000000001</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6">
-        <v>9328300000</v>
-      </c>
+      <c r="E56" s="6"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2345,21 +2064,7 @@
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>24</v>
-      </c>
-      <c r="B57">
-        <v>58.076000000000001</v>
-      </c>
-      <c r="C57">
-        <v>33.504100000000001</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57" s="6">
-        <v>301970</v>
-      </c>
+      <c r="E57" s="6"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2367,21 +2072,7 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58">
-        <v>58.2241</v>
-      </c>
-      <c r="C58">
-        <v>33.652200000000001</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6">
-        <v>12964000</v>
-      </c>
+      <c r="E58" s="6"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2404,7 +2095,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2435,21 +2126,11 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>-24.577000000000002</v>
-      </c>
-      <c r="D63" s="1">
-        <v>14</v>
-      </c>
-      <c r="E63" s="7">
-        <v>334130</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2458,21 +2139,11 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.97726999999999997</v>
-      </c>
-      <c r="C64" s="1">
-        <v>-23.6</v>
-      </c>
-      <c r="D64" s="1">
-        <v>20</v>
-      </c>
-      <c r="E64" s="1">
-        <v>55819</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2481,21 +2152,11 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>3</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1.9655</v>
-      </c>
-      <c r="C65" s="1">
-        <v>-22.611999999999998</v>
-      </c>
-      <c r="D65" s="1">
-        <v>15</v>
-      </c>
-      <c r="E65" s="7">
-        <v>4574000</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2504,21 +2165,11 @@
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>4</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2.8323</v>
-      </c>
-      <c r="C66" s="1">
-        <v>-21.745000000000001</v>
-      </c>
-      <c r="D66" s="1">
-        <v>5</v>
-      </c>
-      <c r="E66" s="7">
-        <v>3153500</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2527,21 +2178,11 @@
       <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1">
-        <v>3.8389000000000002</v>
-      </c>
-      <c r="C67" s="1">
-        <v>-20.738</v>
-      </c>
-      <c r="D67" s="1">
-        <v>24</v>
-      </c>
-      <c r="E67" s="7">
-        <v>514750</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2550,21 +2191,11 @@
       <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>6</v>
-      </c>
-      <c r="B68" s="1">
-        <v>4.2644000000000002</v>
-      </c>
-      <c r="C68" s="1">
-        <v>-20.312999999999999</v>
-      </c>
-      <c r="D68" s="1">
-        <v>25</v>
-      </c>
-      <c r="E68" s="7">
-        <v>21266000</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="7"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2572,21 +2203,11 @@
       <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>7</v>
-      </c>
-      <c r="B69" s="1">
-        <v>4.7944000000000004</v>
-      </c>
-      <c r="C69" s="1">
-        <v>-19.783000000000001</v>
-      </c>
-      <c r="D69" s="1">
-        <v>9</v>
-      </c>
-      <c r="E69" s="7">
-        <v>185640</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="7"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2594,21 +2215,11 @@
       <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>8</v>
-      </c>
-      <c r="B70" s="3">
-        <v>6.6150000000000002</v>
-      </c>
-      <c r="C70" s="3">
-        <v>-17.962</v>
-      </c>
-      <c r="D70" s="3">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3">
-        <v>7204</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2616,21 +2227,11 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>9</v>
-      </c>
-      <c r="B71" s="2">
-        <v>10.807</v>
-      </c>
-      <c r="C71" s="2">
-        <v>-13.771000000000001</v>
-      </c>
-      <c r="D71" s="2">
-        <v>4</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1.1733</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2638,21 +2239,6 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>10</v>
-      </c>
-      <c r="B72">
-        <v>12.935</v>
-      </c>
-      <c r="C72">
-        <v>-11.641999999999999</v>
-      </c>
-      <c r="D72">
-        <v>19</v>
-      </c>
-      <c r="E72">
-        <v>1.3315999999999999</v>
-      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2660,21 +2246,7 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>11</v>
-      </c>
-      <c r="B73">
-        <v>22.100999999999999</v>
-      </c>
-      <c r="C73">
-        <v>-2.4761000000000002</v>
-      </c>
-      <c r="D73">
-        <v>23</v>
-      </c>
-      <c r="E73" s="6">
-        <v>771490</v>
-      </c>
+      <c r="E73" s="6"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2682,21 +2254,6 @@
       <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>12</v>
-      </c>
-      <c r="B74">
-        <v>22.329000000000001</v>
-      </c>
-      <c r="C74">
-        <v>-2.2479</v>
-      </c>
-      <c r="D74">
-        <v>18</v>
-      </c>
-      <c r="E74">
-        <v>16362</v>
-      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2704,21 +2261,6 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>13</v>
-      </c>
-      <c r="B75">
-        <v>22.536000000000001</v>
-      </c>
-      <c r="C75">
-        <v>-2.0409000000000002</v>
-      </c>
-      <c r="D75">
-        <v>17</v>
-      </c>
-      <c r="E75">
-        <v>13853</v>
-      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2726,21 +2268,7 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="B76">
-        <v>23.425999999999998</v>
-      </c>
-      <c r="C76">
-        <v>-1.1515</v>
-      </c>
-      <c r="D76">
-        <v>8</v>
-      </c>
-      <c r="E76" s="6">
-        <v>718260</v>
-      </c>
+      <c r="E76" s="6"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2748,21 +2276,7 @@
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>15</v>
-      </c>
-      <c r="B77">
-        <v>23.954000000000001</v>
-      </c>
-      <c r="C77">
-        <v>-0.62294000000000005</v>
-      </c>
-      <c r="D77">
-        <v>21</v>
-      </c>
-      <c r="E77" s="6">
-        <v>221090</v>
-      </c>
+      <c r="E77" s="6"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2770,21 +2284,6 @@
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>16</v>
-      </c>
-      <c r="B78">
-        <v>24.616</v>
-      </c>
-      <c r="C78">
-        <v>3.9018999999999998E-2</v>
-      </c>
-      <c r="D78">
-        <v>12</v>
-      </c>
-      <c r="E78">
-        <v>30326</v>
-      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2792,21 +2291,7 @@
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>17</v>
-      </c>
-      <c r="B79">
-        <v>24.75</v>
-      </c>
-      <c r="C79">
-        <v>0.17249</v>
-      </c>
-      <c r="D79">
-        <v>13</v>
-      </c>
-      <c r="E79" s="6">
-        <v>2182500</v>
-      </c>
+      <c r="E79" s="6"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2814,21 +2299,6 @@
       <c r="K79" s="8"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>18</v>
-      </c>
-      <c r="B80">
-        <v>25.783000000000001</v>
-      </c>
-      <c r="C80">
-        <v>1.2053</v>
-      </c>
-      <c r="D80">
-        <v>22</v>
-      </c>
-      <c r="E80">
-        <v>99870</v>
-      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2836,21 +2306,7 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>19</v>
-      </c>
-      <c r="B81">
-        <v>26.266999999999999</v>
-      </c>
-      <c r="C81">
-        <v>1.6896</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1004400</v>
-      </c>
+      <c r="E81" s="6"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2858,21 +2314,6 @@
       <c r="K81" s="8"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>20</v>
-      </c>
-      <c r="B82">
-        <v>28.103000000000002</v>
-      </c>
-      <c r="C82">
-        <v>3.5251999999999999</v>
-      </c>
-      <c r="D82">
-        <v>16</v>
-      </c>
-      <c r="E82">
-        <v>1.4636</v>
-      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2880,21 +2321,7 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>21</v>
-      </c>
-      <c r="B83">
-        <v>49.384</v>
-      </c>
-      <c r="C83">
-        <v>24.806999999999999</v>
-      </c>
-      <c r="D83">
-        <v>11</v>
-      </c>
-      <c r="E83" s="6">
-        <v>551470</v>
-      </c>
+      <c r="E83" s="6"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2902,21 +2329,7 @@
       <c r="K83" s="8"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>22</v>
-      </c>
-      <c r="B84">
-        <v>50.33</v>
-      </c>
-      <c r="C84">
-        <v>25.751999999999999</v>
-      </c>
-      <c r="D84">
-        <v>6</v>
-      </c>
-      <c r="E84" s="6">
-        <v>1430300</v>
-      </c>
+      <c r="E84" s="6"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2924,21 +2337,7 @@
       <c r="K84" s="8"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>23</v>
-      </c>
-      <c r="B85">
-        <v>50.567</v>
-      </c>
-      <c r="C85">
-        <v>25.99</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
-        <v>19143000000</v>
-      </c>
+      <c r="E85" s="6"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2946,21 +2345,7 @@
       <c r="K85" s="8"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>24</v>
-      </c>
-      <c r="B86">
-        <v>54.213000000000001</v>
-      </c>
-      <c r="C86">
-        <v>29.635999999999999</v>
-      </c>
-      <c r="D86">
-        <v>7</v>
-      </c>
-      <c r="E86" s="6">
-        <v>1485600</v>
-      </c>
+      <c r="E86" s="6"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -2968,21 +2353,7 @@
       <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>25</v>
-      </c>
-      <c r="B87">
-        <v>54.369</v>
-      </c>
-      <c r="C87">
-        <v>29.791</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" s="6">
-        <v>920050</v>
-      </c>
+      <c r="E87" s="6"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -3005,7 +2376,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3036,21 +2407,11 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
-        <v>-20.69</v>
-      </c>
-      <c r="D92" s="1">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1">
-        <v>73.975999999999999</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3059,21 +2420,11 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>2</v>
-      </c>
-      <c r="B93" s="3">
-        <v>2.4731000000000001</v>
-      </c>
-      <c r="C93" s="3">
-        <v>-18.216999999999999</v>
-      </c>
-      <c r="D93" s="3">
-        <v>20</v>
-      </c>
-      <c r="E93" s="3">
-        <v>72.314999999999998</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -3082,21 +2433,11 @@
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>3</v>
-      </c>
-      <c r="B94" s="3">
-        <v>3.7713000000000001</v>
-      </c>
-      <c r="C94" s="3">
-        <v>-16.919</v>
-      </c>
-      <c r="D94" s="3">
-        <v>24</v>
-      </c>
-      <c r="E94" s="3">
-        <v>74.372</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -3105,21 +2446,11 @@
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>4</v>
-      </c>
-      <c r="B95" s="3">
-        <v>3.8618000000000001</v>
-      </c>
-      <c r="C95" s="3">
-        <v>-16.829000000000001</v>
-      </c>
-      <c r="D95" s="3">
-        <v>15</v>
-      </c>
-      <c r="E95" s="3">
-        <v>73.795000000000002</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -3128,21 +2459,11 @@
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>5</v>
-      </c>
-      <c r="B96" s="3">
-        <v>5.1664000000000003</v>
-      </c>
-      <c r="C96" s="3">
-        <v>-15.523999999999999</v>
-      </c>
-      <c r="D96" s="3">
-        <v>5</v>
-      </c>
-      <c r="E96" s="3">
-        <v>67.572000000000003</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -3151,21 +2472,11 @@
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>6</v>
-      </c>
-      <c r="B97" s="3">
-        <v>5.7003000000000004</v>
-      </c>
-      <c r="C97" s="3">
-        <v>-14.99</v>
-      </c>
-      <c r="D97" s="3">
-        <v>9</v>
-      </c>
-      <c r="E97" s="3">
-        <v>73.349999999999994</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3173,21 +2484,11 @@
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>7</v>
-      </c>
-      <c r="B98" s="3">
-        <v>6.1311999999999998</v>
-      </c>
-      <c r="C98" s="3">
-        <v>-14.558999999999999</v>
-      </c>
-      <c r="D98" s="3">
-        <v>25</v>
-      </c>
-      <c r="E98" s="3">
-        <v>92.367000000000004</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3195,21 +2496,11 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>8</v>
-      </c>
-      <c r="B99" s="3">
-        <v>6.4702999999999999</v>
-      </c>
-      <c r="C99" s="3">
-        <v>-14.22</v>
-      </c>
-      <c r="D99" s="3">
-        <v>19</v>
-      </c>
-      <c r="E99" s="3">
-        <v>6.9627999999999997</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3217,21 +2508,11 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>9</v>
-      </c>
-      <c r="B100" s="3">
-        <v>7.1882000000000001</v>
-      </c>
-      <c r="C100" s="3">
-        <v>-13.502000000000001</v>
-      </c>
-      <c r="D100" s="3">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>4.6336000000000002E-2</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3239,21 +2520,11 @@
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>10</v>
-      </c>
-      <c r="B101" s="3">
-        <v>8.7565000000000008</v>
-      </c>
-      <c r="C101" s="3">
-        <v>-11.933999999999999</v>
-      </c>
-      <c r="D101" s="3">
-        <v>10</v>
-      </c>
-      <c r="E101" s="3">
-        <v>97.063999999999993</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3261,21 +2532,6 @@
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="B102">
-        <v>25.356999999999999</v>
-      </c>
-      <c r="C102">
-        <v>4.6664000000000003</v>
-      </c>
-      <c r="D102">
-        <v>18</v>
-      </c>
-      <c r="E102">
-        <v>89.141999999999996</v>
-      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3283,21 +2539,6 @@
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103">
-        <v>25.451000000000001</v>
-      </c>
-      <c r="C103">
-        <v>4.7602000000000002</v>
-      </c>
-      <c r="D103">
-        <v>17</v>
-      </c>
-      <c r="E103">
-        <v>91.564999999999998</v>
-      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3305,21 +2546,6 @@
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>13</v>
-      </c>
-      <c r="B104">
-        <v>25.506</v>
-      </c>
-      <c r="C104">
-        <v>4.8155999999999999</v>
-      </c>
-      <c r="D104">
-        <v>21</v>
-      </c>
-      <c r="E104">
-        <v>57.136000000000003</v>
-      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -3327,21 +2553,7 @@
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>14</v>
-      </c>
-      <c r="B105">
-        <v>25.960999999999999</v>
-      </c>
-      <c r="C105">
-        <v>5.2701000000000002</v>
-      </c>
-      <c r="D105">
-        <v>23</v>
-      </c>
-      <c r="E105" s="6">
-        <v>485330</v>
-      </c>
+      <c r="E105" s="6"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3349,21 +2561,6 @@
       <c r="K105" s="8"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>26.393000000000001</v>
-      </c>
-      <c r="C106">
-        <v>5.7023000000000001</v>
-      </c>
-      <c r="D106">
-        <v>16</v>
-      </c>
-      <c r="E106">
-        <v>9.2583000000000002</v>
-      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3371,21 +2568,7 @@
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>16</v>
-      </c>
-      <c r="B107">
-        <v>27.277000000000001</v>
-      </c>
-      <c r="C107">
-        <v>6.5861999999999998</v>
-      </c>
-      <c r="D107">
-        <v>8</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1138800</v>
-      </c>
+      <c r="E107" s="6"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3393,21 +2576,6 @@
       <c r="K107" s="8"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>17</v>
-      </c>
-      <c r="B108">
-        <v>28.417000000000002</v>
-      </c>
-      <c r="C108">
-        <v>7.7267999999999999</v>
-      </c>
-      <c r="D108">
-        <v>12</v>
-      </c>
-      <c r="E108">
-        <v>43.048000000000002</v>
-      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3415,21 +2583,7 @@
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>18</v>
-      </c>
-      <c r="B109">
-        <v>28.617000000000001</v>
-      </c>
-      <c r="C109">
-        <v>7.9264000000000001</v>
-      </c>
-      <c r="D109">
-        <v>13</v>
-      </c>
-      <c r="E109" s="6">
-        <v>582840</v>
-      </c>
+      <c r="E109" s="6"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3437,21 +2591,6 @@
       <c r="K109" s="8"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>19</v>
-      </c>
-      <c r="B110">
-        <v>29.047000000000001</v>
-      </c>
-      <c r="C110">
-        <v>8.3564000000000007</v>
-      </c>
-      <c r="D110">
-        <v>22</v>
-      </c>
-      <c r="E110">
-        <v>101.38</v>
-      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -3459,21 +2598,7 @@
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>20</v>
-      </c>
-      <c r="B111">
-        <v>30.122</v>
-      </c>
-      <c r="C111">
-        <v>9.4318000000000008</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111" s="6">
-        <v>444650</v>
-      </c>
+      <c r="E111" s="6"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -3481,21 +2606,7 @@
       <c r="K111" s="8"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>21</v>
-      </c>
-      <c r="B112">
-        <v>53.25</v>
-      </c>
-      <c r="C112">
-        <v>32.56</v>
-      </c>
-      <c r="D112">
-        <v>11</v>
-      </c>
-      <c r="E112" s="6">
-        <v>306350</v>
-      </c>
+      <c r="E112" s="6"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3503,21 +2614,7 @@
       <c r="K112" s="8"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>22</v>
-      </c>
-      <c r="B113">
-        <v>54.192999999999998</v>
-      </c>
-      <c r="C113">
-        <v>33.502000000000002</v>
-      </c>
-      <c r="D113">
-        <v>6</v>
-      </c>
-      <c r="E113" s="6">
-        <v>2802000000</v>
-      </c>
+      <c r="E113" s="6"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -3525,21 +2622,7 @@
       <c r="K113" s="8"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>23</v>
-      </c>
-      <c r="B114">
-        <v>54.415999999999997</v>
-      </c>
-      <c r="C114">
-        <v>33.725999999999999</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" s="6">
-        <v>4960500</v>
-      </c>
+      <c r="E114" s="6"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -3547,21 +2630,7 @@
       <c r="K114" s="8"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>24</v>
-      </c>
-      <c r="B115">
-        <v>58.073999999999998</v>
-      </c>
-      <c r="C115">
-        <v>37.384</v>
-      </c>
-      <c r="D115">
-        <v>7</v>
-      </c>
-      <c r="E115" s="6">
-        <v>315970</v>
-      </c>
+      <c r="E115" s="6"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -3569,21 +2638,7 @@
       <c r="K115" s="8"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>25</v>
-      </c>
-      <c r="B116">
-        <v>58.212000000000003</v>
-      </c>
-      <c r="C116">
-        <v>37.521999999999998</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" s="6">
-        <v>29778000</v>
-      </c>
+      <c r="E116" s="6"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -3606,7 +2661,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -3637,21 +2692,11 @@
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>1</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0</v>
-      </c>
-      <c r="C121" s="1">
-        <v>-24.504000000000001</v>
-      </c>
-      <c r="D121" s="1">
-        <v>14</v>
-      </c>
-      <c r="E121" s="1">
-        <v>71.204999999999998</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -3660,21 +2705,11 @@
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>2</v>
-      </c>
-      <c r="B122" s="1">
-        <v>2.4083000000000001</v>
-      </c>
-      <c r="C122" s="1">
-        <v>-22.096</v>
-      </c>
-      <c r="D122" s="1">
-        <v>20</v>
-      </c>
-      <c r="E122" s="1">
-        <v>71.61</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -3683,21 +2718,11 @@
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>3</v>
-      </c>
-      <c r="B123" s="1">
-        <v>3.7746</v>
-      </c>
-      <c r="C123" s="1">
-        <v>-20.728999999999999</v>
-      </c>
-      <c r="D123" s="1">
-        <v>24</v>
-      </c>
-      <c r="E123" s="1">
-        <v>72.298000000000002</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -3706,21 +2731,11 @@
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>4</v>
-      </c>
-      <c r="B124" s="1">
-        <v>3.8340999999999998</v>
-      </c>
-      <c r="C124" s="1">
-        <v>-20.67</v>
-      </c>
-      <c r="D124" s="1">
-        <v>15</v>
-      </c>
-      <c r="E124" s="1">
-        <v>75.697999999999993</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -3729,21 +2744,11 @@
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>5</v>
-      </c>
-      <c r="B125" s="1">
-        <v>5.1067</v>
-      </c>
-      <c r="C125" s="1">
-        <v>-19.396999999999998</v>
-      </c>
-      <c r="D125" s="1">
-        <v>5</v>
-      </c>
-      <c r="E125" s="1">
-        <v>70.676000000000002</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -3752,21 +2757,11 @@
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>6</v>
-      </c>
-      <c r="B126" s="1">
-        <v>5.6557000000000004</v>
-      </c>
-      <c r="C126" s="1">
-        <v>-18.847999999999999</v>
-      </c>
-      <c r="D126" s="1">
-        <v>9</v>
-      </c>
-      <c r="E126" s="1">
-        <v>71.98</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -3774,21 +2769,11 @@
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>7</v>
-      </c>
-      <c r="B127" s="3">
-        <v>6.1413000000000002</v>
-      </c>
-      <c r="C127" s="3">
-        <v>-18.363</v>
-      </c>
-      <c r="D127" s="3">
-        <v>25</v>
-      </c>
-      <c r="E127" s="3">
-        <v>96.554000000000002</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -3796,21 +2781,11 @@
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>8</v>
-      </c>
-      <c r="B128" s="3">
-        <v>6.5682999999999998</v>
-      </c>
-      <c r="C128" s="3">
-        <v>-17.936</v>
-      </c>
-      <c r="D128" s="3">
-        <v>19</v>
-      </c>
-      <c r="E128" s="3">
-        <v>8.4201999999999995</v>
-      </c>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -3818,21 +2793,11 @@
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>9</v>
-      </c>
-      <c r="B129" s="3">
-        <v>8.6107999999999993</v>
-      </c>
-      <c r="C129" s="3">
-        <v>-15.893000000000001</v>
-      </c>
-      <c r="D129" s="3">
-        <v>4</v>
-      </c>
-      <c r="E129" s="3">
-        <v>4.0175000000000001</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -3840,21 +2805,11 @@
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
-        <v>10</v>
-      </c>
-      <c r="B130" s="3">
-        <v>8.6929999999999996</v>
-      </c>
-      <c r="C130" s="3">
-        <v>-15.811</v>
-      </c>
-      <c r="D130" s="3">
-        <v>10</v>
-      </c>
-      <c r="E130" s="3">
-        <v>94.335999999999999</v>
-      </c>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -3862,21 +2817,6 @@
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>11</v>
-      </c>
-      <c r="B131">
-        <v>25.300999999999998</v>
-      </c>
-      <c r="C131">
-        <v>0.79744999999999999</v>
-      </c>
-      <c r="D131">
-        <v>18</v>
-      </c>
-      <c r="E131">
-        <v>76.019000000000005</v>
-      </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -3884,21 +2824,6 @@
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>12</v>
-      </c>
-      <c r="B132">
-        <v>25.369</v>
-      </c>
-      <c r="C132">
-        <v>0.86504999999999999</v>
-      </c>
-      <c r="D132">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>66.257000000000005</v>
-      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -3906,21 +2831,6 @@
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>13</v>
-      </c>
-      <c r="B133">
-        <v>25.481000000000002</v>
-      </c>
-      <c r="C133">
-        <v>0.97758</v>
-      </c>
-      <c r="D133">
-        <v>21</v>
-      </c>
-      <c r="E133">
-        <v>59.722000000000001</v>
-      </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -3928,21 +2838,7 @@
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>14</v>
-      </c>
-      <c r="B134">
-        <v>25.904</v>
-      </c>
-      <c r="C134">
-        <v>1.4001999999999999</v>
-      </c>
-      <c r="D134">
-        <v>23</v>
-      </c>
-      <c r="E134" s="6">
-        <v>491220</v>
-      </c>
+      <c r="E134" s="6"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -3950,21 +2846,6 @@
       <c r="K134" s="8"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>15</v>
-      </c>
-      <c r="B135">
-        <v>26.353999999999999</v>
-      </c>
-      <c r="C135">
-        <v>1.8496999999999999</v>
-      </c>
-      <c r="D135">
-        <v>16</v>
-      </c>
-      <c r="E135">
-        <v>9.6039999999999992</v>
-      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -3972,21 +2853,7 @@
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>16</v>
-      </c>
-      <c r="B136">
-        <v>27.228000000000002</v>
-      </c>
-      <c r="C136">
-        <v>2.7241</v>
-      </c>
-      <c r="D136">
-        <v>8</v>
-      </c>
-      <c r="E136" s="6">
-        <v>472010</v>
-      </c>
+      <c r="E136" s="6"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -3994,21 +2861,6 @@
       <c r="K136" s="8"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>17</v>
-      </c>
-      <c r="B137">
-        <v>28.36</v>
-      </c>
-      <c r="C137">
-        <v>3.8565999999999998</v>
-      </c>
-      <c r="D137">
-        <v>12</v>
-      </c>
-      <c r="E137">
-        <v>41.908000000000001</v>
-      </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -4016,21 +2868,7 @@
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>18</v>
-      </c>
-      <c r="B138">
-        <v>28.565999999999999</v>
-      </c>
-      <c r="C138">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="D138">
-        <v>13</v>
-      </c>
-      <c r="E138" s="6">
-        <v>425700</v>
-      </c>
+      <c r="E138" s="6"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -4038,21 +2876,6 @@
       <c r="K138" s="8"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>19</v>
-      </c>
-      <c r="B139">
-        <v>29.033999999999999</v>
-      </c>
-      <c r="C139">
-        <v>4.5305999999999997</v>
-      </c>
-      <c r="D139">
-        <v>22</v>
-      </c>
-      <c r="E139">
-        <v>103.61</v>
-      </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -4060,21 +2883,7 @@
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>20</v>
-      </c>
-      <c r="B140">
-        <v>30.061</v>
-      </c>
-      <c r="C140">
-        <v>5.5568</v>
-      </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140" s="6">
-        <v>918040</v>
-      </c>
+      <c r="E140" s="6"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -4082,21 +2891,7 @@
       <c r="K140" s="8"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>21</v>
-      </c>
-      <c r="B141">
-        <v>53.179000000000002</v>
-      </c>
-      <c r="C141">
-        <v>28.675999999999998</v>
-      </c>
-      <c r="D141">
-        <v>11</v>
-      </c>
-      <c r="E141" s="6">
-        <v>1516800</v>
-      </c>
+      <c r="E141" s="6"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -4104,21 +2899,7 @@
       <c r="K141" s="8"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>22</v>
-      </c>
-      <c r="B142">
-        <v>54.140999999999998</v>
-      </c>
-      <c r="C142">
-        <v>29.637</v>
-      </c>
-      <c r="D142">
-        <v>6</v>
-      </c>
-      <c r="E142" s="6">
-        <v>326670</v>
-      </c>
+      <c r="E142" s="6"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -4126,21 +2907,7 @@
       <c r="K142" s="8"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>23</v>
-      </c>
-      <c r="B143">
-        <v>54.353000000000002</v>
-      </c>
-      <c r="C143">
-        <v>29.849</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143" s="6">
-        <v>2418100</v>
-      </c>
+      <c r="E143" s="6"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -4148,21 +2915,7 @@
       <c r="K143" s="8"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>24</v>
-      </c>
-      <c r="B144">
-        <v>58.017000000000003</v>
-      </c>
-      <c r="C144">
-        <v>33.512999999999998</v>
-      </c>
-      <c r="D144">
-        <v>7</v>
-      </c>
-      <c r="E144" s="6">
-        <v>344620</v>
-      </c>
+      <c r="E144" s="6"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -4170,21 +2923,7 @@
       <c r="K144" s="8"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>25</v>
-      </c>
-      <c r="B145">
-        <v>58.165999999999997</v>
-      </c>
-      <c r="C145">
-        <v>33.662999999999997</v>
-      </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145" s="6">
-        <v>5919800</v>
-      </c>
+      <c r="E145" s="6"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -4207,7 +2946,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -4245,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="C150" s="1">
-        <v>-23.192</v>
+        <v>-23.188099999999999</v>
       </c>
       <c r="D150" s="1">
         <v>14</v>
       </c>
       <c r="E150" s="1">
-        <v>8.4954999999999998</v>
+        <v>8.4844000000000008</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -4265,16 +3004,16 @@
         <v>2</v>
       </c>
       <c r="B151" s="1">
-        <v>1.399</v>
+        <v>1.5301</v>
       </c>
       <c r="C151" s="1">
-        <v>-21.792999999999999</v>
+        <v>-21.658000000000001</v>
       </c>
       <c r="D151" s="1">
         <v>19</v>
       </c>
       <c r="E151" s="1">
-        <v>8.8515999999999995</v>
+        <v>9.0114000000000001</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -4288,16 +3027,16 @@
         <v>3</v>
       </c>
       <c r="B152" s="1">
-        <v>2.5375999999999999</v>
+        <v>2.6776</v>
       </c>
       <c r="C152" s="1">
-        <v>-20.655000000000001</v>
+        <v>-20.5105</v>
       </c>
       <c r="D152" s="1">
         <v>20</v>
       </c>
       <c r="E152" s="1">
-        <v>8.1367999999999991</v>
+        <v>8.1542999999999992</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -4311,16 +3050,16 @@
         <v>4</v>
       </c>
       <c r="B153" s="1">
-        <v>2.6322999999999999</v>
+        <v>2.9969000000000001</v>
       </c>
       <c r="C153" s="1">
-        <v>-20.56</v>
+        <v>-20.191199999999998</v>
       </c>
       <c r="D153" s="1">
         <v>24</v>
       </c>
       <c r="E153" s="1">
-        <v>8.1475000000000009</v>
+        <v>8.1646000000000001</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -4334,16 +3073,16 @@
         <v>5</v>
       </c>
       <c r="B154" s="1">
-        <v>3.0842000000000001</v>
+        <v>3.1063999999999998</v>
       </c>
       <c r="C154" s="1">
-        <v>-20.108000000000001</v>
+        <v>-20.081700000000001</v>
       </c>
       <c r="D154" s="1">
         <v>15</v>
       </c>
       <c r="E154" s="1">
-        <v>8.1597000000000008</v>
+        <v>8.1716999999999995</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -4357,16 +3096,16 @@
         <v>6</v>
       </c>
       <c r="B155" s="1">
-        <v>3.6034999999999999</v>
+        <v>3.5644</v>
       </c>
       <c r="C155" s="1">
-        <v>-19.588999999999999</v>
+        <v>-19.623699999999999</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
       </c>
       <c r="E155" s="1">
-        <v>8.4715000000000007</v>
+        <v>8.4375999999999998</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -4379,16 +3118,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="1">
-        <v>4.3482000000000003</v>
+        <v>4.3701999999999996</v>
       </c>
       <c r="C156" s="1">
-        <v>-18.844000000000001</v>
+        <v>-18.817900000000002</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
       </c>
       <c r="E156" s="1">
-        <v>7.9241000000000001</v>
+        <v>7.9263000000000003</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -4401,16 +3140,16 @@
         <v>8</v>
       </c>
       <c r="B157" s="1">
-        <v>4.3956999999999997</v>
+        <v>4.3921999999999999</v>
       </c>
       <c r="C157" s="1">
-        <v>-18.797000000000001</v>
+        <v>-18.7959</v>
       </c>
       <c r="D157" s="1">
         <v>9</v>
       </c>
       <c r="E157" s="1">
-        <v>7.9234999999999998</v>
+        <v>7.9256000000000002</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -4423,16 +3162,16 @@
         <v>9</v>
       </c>
       <c r="B158" s="3">
-        <v>6.4105999999999996</v>
+        <v>6.7413999999999996</v>
       </c>
       <c r="C158" s="3">
-        <v>-16.782</v>
+        <v>-16.4467</v>
       </c>
       <c r="D158" s="3">
         <v>25</v>
       </c>
       <c r="E158" s="3">
-        <v>8.1361000000000008</v>
+        <v>8.1547000000000001</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -4445,16 +3184,16 @@
         <v>10</v>
       </c>
       <c r="B159" s="3">
-        <v>8.1740999999999993</v>
+        <v>8.2459000000000007</v>
       </c>
       <c r="C159" s="3">
-        <v>-15.018000000000001</v>
+        <v>-14.9422</v>
       </c>
       <c r="D159" s="3">
         <v>10</v>
       </c>
       <c r="E159" s="3">
-        <v>19.488</v>
+        <v>8.2311999999999994</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -4463,20 +3202,20 @@
       <c r="K159" s="2"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>11</v>
       </c>
       <c r="B160">
-        <v>21.597000000000001</v>
+        <v>21.342700000000001</v>
       </c>
       <c r="C160">
-        <v>-1.5951</v>
+        <v>-1.8453999999999999</v>
       </c>
       <c r="D160">
         <v>16</v>
       </c>
       <c r="E160">
-        <v>9.1011000000000006</v>
+        <v>9.0528999999999993</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
@@ -4485,20 +3224,20 @@
       <c r="K160" s="2"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>12</v>
       </c>
       <c r="B161">
-        <v>23.515000000000001</v>
+        <v>23.539899999999999</v>
       </c>
       <c r="C161">
-        <v>0.32218000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="D161">
         <v>18</v>
       </c>
       <c r="E161">
-        <v>9.5348000000000006</v>
+        <v>9.5533999999999999</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -4507,20 +3246,20 @@
       <c r="K161" s="2"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>13</v>
       </c>
       <c r="B162">
-        <v>23.553000000000001</v>
+        <v>23.542400000000001</v>
       </c>
       <c r="C162">
-        <v>0.36101</v>
+        <v>0.3543</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E162">
-        <v>9.6008999999999993</v>
+        <v>9.5518999999999998</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
@@ -4529,20 +3268,20 @@
       <c r="K162" s="2"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>14</v>
       </c>
       <c r="B163">
-        <v>23.623000000000001</v>
+        <v>23.552199999999999</v>
       </c>
       <c r="C163">
-        <v>0.43032999999999999</v>
+        <v>0.36409999999999998</v>
       </c>
       <c r="D163">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>9.6058000000000003</v>
+        <v>9.6405999999999992</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
@@ -4551,20 +3290,20 @@
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>15</v>
       </c>
       <c r="B164">
-        <v>23.745999999999999</v>
+        <v>23.554099999999998</v>
       </c>
       <c r="C164">
-        <v>0.55352999999999997</v>
+        <v>0.36609999999999998</v>
       </c>
       <c r="D164">
         <v>21</v>
       </c>
       <c r="E164">
-        <v>9.6029</v>
+        <v>9.5582999999999991</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
@@ -4573,20 +3312,20 @@
       <c r="K164" s="2"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>16</v>
       </c>
       <c r="B165">
-        <v>27.437999999999999</v>
+        <v>27.417300000000001</v>
       </c>
       <c r="C165">
-        <v>4.2453000000000003</v>
+        <v>4.2291999999999996</v>
       </c>
       <c r="D165">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E165">
-        <v>9.5998999999999999</v>
+        <v>9.5593000000000004</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -4595,20 +3334,20 @@
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>17</v>
       </c>
       <c r="B166">
-        <v>27.507999999999999</v>
+        <v>27.435600000000001</v>
       </c>
       <c r="C166">
-        <v>4.3156999999999996</v>
+        <v>4.2476000000000003</v>
       </c>
       <c r="D166">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>9.5967000000000002</v>
+        <v>9.5481999999999996</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
@@ -4617,20 +3356,20 @@
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>18</v>
       </c>
       <c r="B167">
-        <v>62.89</v>
+        <v>111.0117</v>
       </c>
       <c r="C167">
-        <v>39.697000000000003</v>
+        <v>87.823599999999999</v>
       </c>
       <c r="D167">
         <v>8</v>
       </c>
       <c r="E167">
-        <v>19.998999999999999</v>
+        <v>17.534800000000001</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -4639,20 +3378,20 @@
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>19</v>
       </c>
       <c r="B168">
-        <v>222.95</v>
+        <v>222.9529</v>
       </c>
       <c r="C168">
-        <v>199.75</v>
+        <v>199.76480000000001</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168">
-        <v>19.949000000000002</v>
+        <v>19.9209</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
@@ -4661,20 +3400,20 @@
       <c r="K168" s="2"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>20</v>
       </c>
       <c r="B169">
-        <v>223.28</v>
+        <v>223.2902</v>
       </c>
       <c r="C169">
-        <v>200.08</v>
+        <v>200.10210000000001</v>
       </c>
       <c r="D169">
         <v>7</v>
       </c>
       <c r="E169">
-        <v>19.977</v>
+        <v>19.977699999999999</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
@@ -4683,14 +3422,14 @@
       <c r="K169" s="2"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>21</v>
       </c>
       <c r="B170">
-        <v>233.25</v>
+        <v>233.24780000000001</v>
       </c>
       <c r="C170">
-        <v>210.05</v>
+        <v>210.05969999999999</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -4705,20 +3444,20 @@
       <c r="K170" s="2"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>22</v>
       </c>
       <c r="B171">
-        <v>233.6</v>
+        <v>233.59</v>
       </c>
       <c r="C171">
-        <v>210.4</v>
+        <v>210.40190000000001</v>
       </c>
       <c r="D171">
         <v>6</v>
       </c>
       <c r="E171">
-        <v>16.213000000000001</v>
+        <v>20</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -4727,20 +3466,20 @@
       <c r="K171" s="2"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>23</v>
       </c>
       <c r="B172">
-        <v>236.74</v>
+        <v>236.7688</v>
       </c>
       <c r="C172">
-        <v>213.55</v>
+        <v>213.58070000000001</v>
       </c>
       <c r="D172">
         <v>11</v>
       </c>
       <c r="E172">
-        <v>19.798999999999999</v>
+        <v>18.160499999999999</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -4749,14 +3488,14 @@
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>24</v>
       </c>
       <c r="B173">
-        <v>237.12</v>
+        <v>237.11930000000001</v>
       </c>
       <c r="C173">
-        <v>213.93</v>
+        <v>213.93119999999999</v>
       </c>
       <c r="D173">
         <v>13</v>
@@ -4771,20 +3510,20 @@
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>25</v>
       </c>
       <c r="B174">
-        <v>238.05</v>
+        <v>238.0504</v>
       </c>
       <c r="C174">
-        <v>214.85</v>
+        <v>214.8623</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>19.995000000000001</v>
+        <v>19.9953</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -4808,7 +3547,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
@@ -4957,7 +3696,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
@@ -4995,13 +3734,13 @@
         <v>0</v>
       </c>
       <c r="C187" s="1">
-        <v>-21.503</v>
+        <v>-21.154199999999999</v>
       </c>
       <c r="D187" s="1">
         <v>5</v>
       </c>
-      <c r="E187" s="1">
-        <v>34.082999999999998</v>
+      <c r="E187" s="7">
+        <v>21.713000000000001</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
@@ -5014,16 +3753,16 @@
         <v>2</v>
       </c>
       <c r="B188" s="3">
-        <v>5.4779999999999998</v>
+        <v>5.2260999999999997</v>
       </c>
       <c r="C188" s="3">
-        <v>-16.024999999999999</v>
+        <v>-15.928000000000001</v>
       </c>
       <c r="D188" s="3">
         <v>4</v>
       </c>
-      <c r="E188" s="3">
-        <v>19.861000000000001</v>
+      <c r="E188" s="16">
+        <v>20.122</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
@@ -5036,16 +3775,16 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>23.177</v>
+        <v>22.828900000000001</v>
       </c>
       <c r="C189">
-        <v>1.6740999999999999</v>
+        <v>1.6747000000000001</v>
       </c>
       <c r="D189">
         <v>3</v>
       </c>
       <c r="E189" s="6">
-        <v>71909000</v>
+        <v>9968100000</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -5058,16 +3797,16 @@
         <v>4</v>
       </c>
       <c r="B190">
-        <v>47.478999999999999</v>
+        <v>47.130299999999998</v>
       </c>
       <c r="C190">
-        <v>25.975999999999999</v>
+        <v>25.976099999999999</v>
       </c>
       <c r="D190">
         <v>1</v>
       </c>
       <c r="E190" s="6">
-        <v>219230000</v>
+        <v>4841100000</v>
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
@@ -5080,16 +3819,16 @@
         <v>5</v>
       </c>
       <c r="B191">
-        <v>51.281999999999996</v>
+        <v>50.933199999999999</v>
       </c>
       <c r="C191">
-        <v>29.779</v>
+        <v>29.7791</v>
       </c>
       <c r="D191">
         <v>2</v>
       </c>
       <c r="E191" s="6">
-        <v>57499000</v>
+        <v>144870000</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
@@ -5106,7 +3845,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
@@ -5144,13 +3883,13 @@
         <v>0</v>
       </c>
       <c r="C195" s="3">
-        <v>-18.114999999999998</v>
+        <v>-18.020499999999998</v>
       </c>
       <c r="D195" s="3">
         <v>5</v>
       </c>
-      <c r="E195" s="3">
-        <v>665.25</v>
+      <c r="E195" s="16">
+        <v>772.37</v>
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
@@ -5163,15 +3902,15 @@
         <v>2</v>
       </c>
       <c r="B196" s="3">
-        <v>0.47325</v>
+        <v>0.379</v>
       </c>
       <c r="C196" s="3">
-        <v>-17.641999999999999</v>
+        <v>-17.641500000000001</v>
       </c>
       <c r="D196" s="3">
         <v>4</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="16">
         <v>1.1733</v>
       </c>
       <c r="G196" s="2"/>
@@ -5185,16 +3924,16 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>15.917999999999999</v>
+        <v>15.8291</v>
       </c>
       <c r="C197">
-        <v>-2.1970999999999998</v>
+        <v>-2.1913999999999998</v>
       </c>
       <c r="D197">
         <v>3</v>
       </c>
       <c r="E197" s="6">
-        <v>99553000</v>
+        <v>1170500</v>
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
@@ -5207,16 +3946,16 @@
         <v>4</v>
       </c>
       <c r="B198">
-        <v>40.220999999999997</v>
+        <v>40.126600000000003</v>
       </c>
       <c r="C198">
-        <v>22.105</v>
+        <v>22.106100000000001</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
       <c r="E198" s="6">
-        <v>46496000000</v>
+        <v>293650000</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
@@ -5229,16 +3968,16 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>44.023000000000003</v>
+        <v>43.931100000000001</v>
       </c>
       <c r="C199">
-        <v>25.908000000000001</v>
+        <v>25.910699999999999</v>
       </c>
       <c r="D199">
         <v>2</v>
       </c>
       <c r="E199" s="6">
-        <v>161690000</v>
+        <v>82117000</v>
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
@@ -5255,7 +3994,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
@@ -5293,13 +4032,13 @@
         <v>0</v>
       </c>
       <c r="C203" s="3">
-        <v>-17.68</v>
+        <v>-17.645900000000001</v>
       </c>
       <c r="D203" s="3">
         <v>5</v>
       </c>
-      <c r="E203" s="3">
-        <v>24.811</v>
+      <c r="E203" s="16">
+        <v>24.844999999999999</v>
       </c>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
@@ -5312,16 +4051,16 @@
         <v>2</v>
       </c>
       <c r="B204" s="3">
-        <v>1.2404999999999999</v>
+        <v>0.23569999999999999</v>
       </c>
       <c r="C204" s="3">
-        <v>-16.440000000000001</v>
+        <v>-17.4102</v>
       </c>
       <c r="D204" s="3">
         <v>4</v>
       </c>
-      <c r="E204" s="3">
-        <v>3.2433000000000001</v>
+      <c r="E204" s="16">
+        <v>0.10496999999999999</v>
       </c>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
@@ -5334,16 +4073,16 @@
         <v>3</v>
       </c>
       <c r="B205">
-        <v>23.225999999999999</v>
+        <v>23.1921</v>
       </c>
       <c r="C205">
-        <v>5.5453999999999999</v>
+        <v>5.5461999999999998</v>
       </c>
       <c r="D205">
         <v>3</v>
       </c>
       <c r="E205" s="6">
-        <v>18692000</v>
+        <v>31425000</v>
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
@@ -5356,16 +4095,16 @@
         <v>4</v>
       </c>
       <c r="B206">
-        <v>47.527999999999999</v>
+        <v>47.493499999999997</v>
       </c>
       <c r="C206">
-        <v>29.847000000000001</v>
+        <v>29.8476</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206" s="6">
-        <v>418240000</v>
+        <v>22840000</v>
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
@@ -5378,16 +4117,16 @@
         <v>5</v>
       </c>
       <c r="B207">
-        <v>51.33</v>
+        <v>51.296300000000002</v>
       </c>
       <c r="C207">
-        <v>33.65</v>
+        <v>33.650300000000001</v>
       </c>
       <c r="D207">
         <v>2</v>
       </c>
       <c r="E207" s="6">
-        <v>729230000</v>
+        <v>306130000</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
@@ -5404,7 +4143,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
@@ -5442,13 +4181,13 @@
         <v>0</v>
       </c>
       <c r="C211" s="1">
-        <v>-19.763999999999999</v>
+        <v>-19.7637</v>
       </c>
       <c r="D211" s="1">
         <v>4</v>
       </c>
-      <c r="E211" s="1">
-        <v>3.9777999999999998</v>
+      <c r="E211" s="7">
+        <v>4.0079000000000002</v>
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -5461,16 +4200,16 @@
         <v>2</v>
       </c>
       <c r="B212" s="1">
-        <v>0.22137000000000001</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="C212" s="1">
-        <v>-19.542999999999999</v>
+        <v>-19.7041</v>
       </c>
       <c r="D212" s="1">
         <v>5</v>
       </c>
-      <c r="E212" s="1">
-        <v>27.89</v>
+      <c r="E212" s="7">
+        <v>27.431000000000001</v>
       </c>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -5483,16 +4222,16 @@
         <v>3</v>
       </c>
       <c r="B213">
-        <v>21.44</v>
+        <v>21.439900000000002</v>
       </c>
       <c r="C213">
-        <v>1.6759999999999999</v>
+        <v>1.6761999999999999</v>
       </c>
       <c r="D213">
         <v>3</v>
       </c>
       <c r="E213" s="6">
-        <v>3214100</v>
+        <v>2748400</v>
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
@@ -5505,16 +4244,16 @@
         <v>4</v>
       </c>
       <c r="B214">
-        <v>45.752000000000002</v>
+        <v>45.740099999999998</v>
       </c>
       <c r="C214">
-        <v>25.988</v>
+        <v>25.976400000000002</v>
       </c>
       <c r="D214">
         <v>1</v>
       </c>
       <c r="E214" s="6">
-        <v>362780</v>
+        <v>330550000</v>
       </c>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
@@ -5527,16 +4266,16 @@
         <v>5</v>
       </c>
       <c r="B215">
-        <v>49.545999999999999</v>
+        <v>49.543599999999998</v>
       </c>
       <c r="C215">
-        <v>29.782</v>
+        <v>29.779900000000001</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" s="6">
-        <v>9641400</v>
+        <v>9724600000</v>
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
@@ -5553,7 +4292,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
@@ -5591,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="C219" s="1">
-        <v>-23.53</v>
+        <v>-23.506399999999999</v>
       </c>
       <c r="D219" s="1">
         <v>4</v>
       </c>
       <c r="E219" s="1">
-        <v>8.4123000000000001</v>
+        <v>8.4298999999999999</v>
       </c>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
@@ -5610,16 +4349,16 @@
         <v>2</v>
       </c>
       <c r="B220" s="1">
-        <v>0.75985999999999998</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="C220" s="1">
-        <v>-22.77</v>
+        <v>-22.749199999999998</v>
       </c>
       <c r="D220" s="1">
         <v>5</v>
       </c>
       <c r="E220" s="1">
-        <v>7.9183000000000003</v>
+        <v>7.9212999999999996</v>
       </c>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
@@ -5632,16 +4371,16 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>219.41</v>
+        <v>219.38630000000001</v>
       </c>
       <c r="C221">
-        <v>195.88</v>
+        <v>195.87989999999999</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221">
-        <v>19.952999999999999</v>
+        <v>19.968800000000002</v>
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
@@ -5654,10 +4393,10 @@
         <v>4</v>
       </c>
       <c r="B222">
-        <v>229.72</v>
+        <v>229.69399999999999</v>
       </c>
       <c r="C222">
-        <v>206.19</v>
+        <v>206.1876</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -5676,22 +4415,44 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>234.51</v>
+        <v>234.49610000000001</v>
       </c>
       <c r="C223">
-        <v>210.98</v>
+        <v>210.9897</v>
       </c>
       <c r="D223">
         <v>1</v>
       </c>
       <c r="E223">
-        <v>19.998999999999999</v>
+        <v>19.9953</v>
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1">
+        <v>-21.3996</v>
+      </c>
+      <c r="D226" s="1">
+        <v>5</v>
+      </c>
+      <c r="E226" s="1">
+        <v>15.28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5699,1400 +4460,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B42900B-7B28-B740-9017-BB8A19B8F6AB}">
-  <dimension ref="A1:I87"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H2" s="4"/>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-41.787500000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1543.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.3723000000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-39.415199999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1543.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.3414999999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-38.445999999999998</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1434.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3.5924999999999998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-38.195</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1642.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.9934000000000003</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-35.7941</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1640.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8.3816000000000006</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-33.405900000000003</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>65.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>11.379300000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-30.408200000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2">
-        <v>68.594999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>24.9435</v>
-      </c>
-      <c r="C12">
-        <v>-16.844000000000001</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4997700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>40.360100000000003</v>
-      </c>
-      <c r="C13">
-        <v>-1.4275</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
-        <v>5901200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>41.151400000000002</v>
-      </c>
-      <c r="C14">
-        <v>-0.6361</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>114810000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>41.223700000000001</v>
-      </c>
-      <c r="C15">
-        <v>-0.56379999999999997</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6">
-        <v>67466000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>42.854900000000001</v>
-      </c>
-      <c r="C16">
-        <v>1.0673999999999999</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6">
-        <v>675580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>43.648400000000002</v>
-      </c>
-      <c r="C17">
-        <v>1.8608</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6">
-        <v>738160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>56.173000000000002</v>
-      </c>
-      <c r="C18">
-        <v>14.3855</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>1543.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>59.8812</v>
-      </c>
-      <c r="C19">
-        <v>18.093699999999998</v>
-      </c>
-      <c r="D19">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1200.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>60.674599999999998</v>
-      </c>
-      <c r="C20">
-        <v>18.8871</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>68.882999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>66.656400000000005</v>
-      </c>
-      <c r="C21">
-        <v>24.8688</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>65.891000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>74.401899999999998</v>
-      </c>
-      <c r="C22">
-        <v>32.614400000000003</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22" s="6">
-        <v>915660000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>74.930000000000007</v>
-      </c>
-      <c r="C23">
-        <v>33.142499999999998</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>47.473999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>75.051599999999993</v>
-      </c>
-      <c r="C24">
-        <v>33.264099999999999</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6">
-        <v>471470000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>78.563599999999994</v>
-      </c>
-      <c r="C25">
-        <v>36.7761</v>
-      </c>
-      <c r="D25">
-        <v>19</v>
-      </c>
-      <c r="E25">
-        <v>47.460999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>78.742699999999999</v>
-      </c>
-      <c r="C26">
-        <v>36.955199999999998</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26" s="6">
-        <v>625570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>84.591099999999997</v>
-      </c>
-      <c r="C27">
-        <v>42.803600000000003</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>163360000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>87.935199999999995</v>
-      </c>
-      <c r="C28">
-        <v>46.1477</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>469870000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>88.0411</v>
-      </c>
-      <c r="C29">
-        <v>46.253599999999999</v>
-      </c>
-      <c r="D29">
-        <v>16</v>
-      </c>
-      <c r="E29" s="6">
-        <v>405410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-37.915999999999997</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1543.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2.3723999999999998</v>
-      </c>
-      <c r="C35" s="1">
-        <v>-35.543999999999997</v>
-      </c>
-      <c r="D35" s="1">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1541.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3.3754</v>
-      </c>
-      <c r="C36" s="3">
-        <v>-34.540999999999997</v>
-      </c>
-      <c r="D36" s="3">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1333.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3.5752999999999999</v>
-      </c>
-      <c r="C37" s="3">
-        <v>-34.341000000000001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>10</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1614.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5.9802</v>
-      </c>
-      <c r="C38" s="3">
-        <v>-31.936</v>
-      </c>
-      <c r="D38" s="3">
-        <v>25</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1572.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3">
-        <v>8.0030999999999999</v>
-      </c>
-      <c r="C39" s="3">
-        <v>-29.913</v>
-      </c>
-      <c r="D39" s="3">
-        <v>9</v>
-      </c>
-      <c r="E39" s="3">
-        <v>67.444999999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>10.817</v>
-      </c>
-      <c r="C40">
-        <v>-27.099</v>
-      </c>
-      <c r="D40">
-        <v>24</v>
-      </c>
-      <c r="E40">
-        <v>75.164000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>24.946000000000002</v>
-      </c>
-      <c r="C41">
-        <v>-12.97</v>
-      </c>
-      <c r="D41">
-        <v>14</v>
-      </c>
-      <c r="E41" s="6">
-        <v>4991400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>40.360999999999997</v>
-      </c>
-      <c r="C42">
-        <v>2.4453</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="E42" s="6">
-        <v>68455000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>41.152000000000001</v>
-      </c>
-      <c r="C43">
-        <v>3.2359</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6">
-        <v>37757000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>41.225000000000001</v>
-      </c>
-      <c r="C44">
-        <v>3.3083</v>
-      </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-      <c r="E44" s="6">
-        <v>2594600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>42.841000000000001</v>
-      </c>
-      <c r="C45">
-        <v>4.9253</v>
-      </c>
-      <c r="D45">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6">
-        <v>3383400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>43.645000000000003</v>
-      </c>
-      <c r="C46">
-        <v>5.7291999999999996</v>
-      </c>
-      <c r="D46">
-        <v>18</v>
-      </c>
-      <c r="E46" s="6">
-        <v>2992800</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>56.173000000000002</v>
-      </c>
-      <c r="C47">
-        <v>18.257000000000001</v>
-      </c>
-      <c r="D47">
-        <v>17</v>
-      </c>
-      <c r="E47">
-        <v>1551.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>56.2</v>
-      </c>
-      <c r="C48">
-        <v>18.283999999999999</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>7.3246000000000006E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>58.429000000000002</v>
-      </c>
-      <c r="C49">
-        <v>20.513000000000002</v>
-      </c>
-      <c r="D49">
-        <v>19</v>
-      </c>
-      <c r="E49">
-        <v>0.11898</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>59.878999999999998</v>
-      </c>
-      <c r="C50">
-        <v>21.963000000000001</v>
-      </c>
-      <c r="D50">
-        <v>22</v>
-      </c>
-      <c r="E50">
-        <v>1198.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <v>60.384</v>
-      </c>
-      <c r="C51">
-        <v>22.468</v>
-      </c>
-      <c r="D51">
-        <v>21</v>
-      </c>
-      <c r="E51">
-        <v>75.881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>19</v>
-      </c>
-      <c r="B52">
-        <v>63.368000000000002</v>
-      </c>
-      <c r="C52">
-        <v>25.452000000000002</v>
-      </c>
-      <c r="D52">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>18.565999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>20</v>
-      </c>
-      <c r="B53">
-        <v>74.403999999999996</v>
-      </c>
-      <c r="C53">
-        <v>36.487000000000002</v>
-      </c>
-      <c r="D53">
-        <v>11</v>
-      </c>
-      <c r="E53" s="6">
-        <v>7458300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>21</v>
-      </c>
-      <c r="B54">
-        <v>75.045000000000002</v>
-      </c>
-      <c r="C54">
-        <v>37.128999999999998</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="E54" s="6">
-        <v>185020000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>22</v>
-      </c>
-      <c r="B55">
-        <v>78.733000000000004</v>
-      </c>
-      <c r="C55">
-        <v>40.817</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1663400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>23</v>
-      </c>
-      <c r="B56">
-        <v>84.590999999999994</v>
-      </c>
-      <c r="C56">
-        <v>46.674999999999997</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6">
-        <v>625800000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>24</v>
-      </c>
-      <c r="B57">
-        <v>87.935000000000002</v>
-      </c>
-      <c r="C57">
-        <v>50.018000000000001</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
-        <v>960780000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58">
-        <v>88.025999999999996</v>
-      </c>
-      <c r="C58">
-        <v>50.11</v>
-      </c>
-      <c r="D58">
-        <v>16</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1705300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
-        <v>-34.045000000000002</v>
-      </c>
-      <c r="D63" s="3">
-        <v>5</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1543.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>2</v>
-      </c>
-      <c r="B64" s="3">
-        <v>2.3732000000000002</v>
-      </c>
-      <c r="C64" s="3">
-        <v>-31.672000000000001</v>
-      </c>
-      <c r="D64" s="3">
-        <v>20</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>3</v>
-      </c>
-      <c r="B65" s="3">
-        <v>3.3416000000000001</v>
-      </c>
-      <c r="C65" s="3">
-        <v>-30.702999999999999</v>
-      </c>
-      <c r="D65" s="3">
-        <v>15</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1434.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>4</v>
-      </c>
-      <c r="B66" s="3">
-        <v>3.5914000000000001</v>
-      </c>
-      <c r="C66" s="3">
-        <v>-30.454000000000001</v>
-      </c>
-      <c r="D66" s="3">
-        <v>10</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1499.7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>5</v>
-      </c>
-      <c r="B67" s="3">
-        <v>5.9957000000000003</v>
-      </c>
-      <c r="C67" s="3">
-        <v>-28.048999999999999</v>
-      </c>
-      <c r="D67" s="3">
-        <v>25</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>6</v>
-      </c>
-      <c r="B68" s="3">
-        <v>8.2856000000000005</v>
-      </c>
-      <c r="C68" s="3">
-        <v>-25.759</v>
-      </c>
-      <c r="D68" s="3">
-        <v>9</v>
-      </c>
-      <c r="E68" s="3">
-        <v>52.533000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>7</v>
-      </c>
-      <c r="B69">
-        <v>11.192</v>
-      </c>
-      <c r="C69">
-        <v>-22.853000000000002</v>
-      </c>
-      <c r="D69">
-        <v>24</v>
-      </c>
-      <c r="E69">
-        <v>64.364000000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70">
-        <v>24.96</v>
-      </c>
-      <c r="C70">
-        <v>-9.0853999999999999</v>
-      </c>
-      <c r="D70">
-        <v>14</v>
-      </c>
-      <c r="E70" s="6">
-        <v>122230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>9</v>
-      </c>
-      <c r="B71">
-        <v>40.377000000000002</v>
-      </c>
-      <c r="C71">
-        <v>6.3319000000000001</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71" s="6">
-        <v>968840</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>10</v>
-      </c>
-      <c r="B72">
-        <v>41.156999999999996</v>
-      </c>
-      <c r="C72">
-        <v>7.1115000000000004</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1756000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>11</v>
-      </c>
-      <c r="B73">
-        <v>41.234000000000002</v>
-      </c>
-      <c r="C73">
-        <v>7.1886000000000001</v>
-      </c>
-      <c r="D73">
-        <v>13</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1526600</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>12</v>
-      </c>
-      <c r="B74">
-        <v>42.854999999999997</v>
-      </c>
-      <c r="C74">
-        <v>8.8097999999999992</v>
-      </c>
-      <c r="D74">
-        <v>23</v>
-      </c>
-      <c r="E74" s="6">
-        <v>658240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>13</v>
-      </c>
-      <c r="B75">
-        <v>43.645000000000003</v>
-      </c>
-      <c r="C75">
-        <v>9.6001999999999992</v>
-      </c>
-      <c r="D75">
-        <v>18</v>
-      </c>
-      <c r="E75" s="6">
-        <v>951880</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="B76">
-        <v>55.523000000000003</v>
-      </c>
-      <c r="C76">
-        <v>21.478000000000002</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>1.0791999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>15</v>
-      </c>
-      <c r="B77">
-        <v>56.173999999999999</v>
-      </c>
-      <c r="C77">
-        <v>22.129000000000001</v>
-      </c>
-      <c r="D77">
-        <v>17</v>
-      </c>
-      <c r="E77">
-        <v>1534.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>16</v>
-      </c>
-      <c r="B78">
-        <v>58.18</v>
-      </c>
-      <c r="C78">
-        <v>24.135000000000002</v>
-      </c>
-      <c r="D78">
-        <v>19</v>
-      </c>
-      <c r="E78">
-        <v>0.1938</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>17</v>
-      </c>
-      <c r="B79">
-        <v>59.88</v>
-      </c>
-      <c r="C79">
-        <v>25.834</v>
-      </c>
-      <c r="D79">
-        <v>22</v>
-      </c>
-      <c r="E79">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>18</v>
-      </c>
-      <c r="B80">
-        <v>60.387</v>
-      </c>
-      <c r="C80">
-        <v>26.341999999999999</v>
-      </c>
-      <c r="D80">
-        <v>21</v>
-      </c>
-      <c r="E80">
-        <v>56.704000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>19</v>
-      </c>
-      <c r="B81">
-        <v>63.366999999999997</v>
-      </c>
-      <c r="C81">
-        <v>29.321999999999999</v>
-      </c>
-      <c r="D81">
-        <v>12</v>
-      </c>
-      <c r="E81">
-        <v>11.067</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>20</v>
-      </c>
-      <c r="B82">
-        <v>74.406999999999996</v>
-      </c>
-      <c r="C82">
-        <v>40.362000000000002</v>
-      </c>
-      <c r="D82">
-        <v>11</v>
-      </c>
-      <c r="E82" s="6">
-        <v>1450400</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>21</v>
-      </c>
-      <c r="B83">
-        <v>75.063999999999993</v>
-      </c>
-      <c r="C83">
-        <v>41.018999999999998</v>
-      </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83" s="6">
-        <v>454070</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>22</v>
-      </c>
-      <c r="B84">
-        <v>78.745999999999995</v>
-      </c>
-      <c r="C84">
-        <v>44.701000000000001</v>
-      </c>
-      <c r="D84">
-        <v>7</v>
-      </c>
-      <c r="E84" s="6">
-        <v>445770</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>23</v>
-      </c>
-      <c r="B85">
-        <v>84.593000000000004</v>
-      </c>
-      <c r="C85">
-        <v>50.546999999999997</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
-        <v>3448000000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>24</v>
-      </c>
-      <c r="B86">
-        <v>87.953999999999994</v>
-      </c>
-      <c r="C86">
-        <v>53.908999999999999</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86" s="6">
-        <v>272650</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>25</v>
-      </c>
-      <c r="B87">
-        <v>88.043999999999997</v>
-      </c>
-      <c r="C87">
-        <v>53.999000000000002</v>
-      </c>
-      <c r="D87">
-        <v>16</v>
-      </c>
-      <c r="E87" s="6">
-        <v>377080</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547E4E20-3929-3140-B35D-82CB01EE3142}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N2" s="4"/>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -7101,7 +4491,7 @@
       <c r="K3" s="2"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -7126,10 +4516,10 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="N4" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -7140,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-18.494</v>
-      </c>
-      <c r="D5" s="10">
+        <v>-16.373999999999999</v>
+      </c>
+      <c r="D5" s="13">
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>7.3685999999999998</v>
+        <v>7.4630999999999998</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -7159,16 +4549,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>0.58284000000000002</v>
+        <v>1.9907999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>-17.911000000000001</v>
-      </c>
-      <c r="D6" s="10">
+        <v>-14.383100000000001</v>
+      </c>
+      <c r="D6" s="13">
         <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>6.8761999999999999</v>
+        <v>7.4851000000000001</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7181,16 +4571,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>4.9120999999999997</v>
+        <v>3.1735000000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>-13.582000000000001</v>
+        <v>-13.2004</v>
       </c>
       <c r="D7" s="10">
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>7.1482000000000001</v>
+        <v>8.0722000000000005</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -7203,16 +4593,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>7.5425000000000004</v>
+        <v>6.6984000000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>-10.951000000000001</v>
-      </c>
-      <c r="D8" s="13">
+        <v>-9.6755999999999993</v>
+      </c>
+      <c r="D8" s="10">
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>6.9669999999999996</v>
+        <v>7.8906999999999998</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -7225,16 +4615,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>20.513000000000002</v>
+        <v>19.217600000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>2.0194999999999999</v>
+        <v>2.8437000000000001</v>
       </c>
       <c r="D9" s="2">
         <v>14</v>
       </c>
       <c r="E9" s="2">
-        <v>9.8110999999999997</v>
+        <v>9.2141000000000002</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7247,16 +4637,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>25.129000000000001</v>
+        <v>23.4483</v>
       </c>
       <c r="C10" s="2">
-        <v>6.6353999999999997</v>
+        <v>7.0743</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>8.5378000000000007</v>
+        <v>8.8838000000000008</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7269,16 +4659,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>29.46</v>
+        <v>26.599299999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>10.965999999999999</v>
+        <v>10.2254</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>10.888999999999999</v>
+        <v>9.1852</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7287,20 +4677,20 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>30.693000000000001</v>
+        <v>27.355499999999999</v>
       </c>
       <c r="C12">
-        <v>12.199</v>
+        <v>10.9815</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>9.5138999999999996</v>
+        <v>11.4024</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -7309,20 +4699,20 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>75.558999999999997</v>
+        <v>73.631200000000007</v>
       </c>
       <c r="C13">
-        <v>57.064999999999998</v>
+        <v>57.257199999999997</v>
       </c>
       <c r="D13">
         <v>15</v>
       </c>
       <c r="E13">
-        <v>10.426</v>
+        <v>10.6753</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -7331,20 +4721,20 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>111.28</v>
+        <v>109.78</v>
       </c>
       <c r="C14">
-        <v>92.790999999999997</v>
+        <v>93.406000000000006</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>19.998999999999999</v>
+        <v>19.880400000000002</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -7353,20 +4743,20 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>112.9</v>
+        <v>111.9654</v>
       </c>
       <c r="C15">
-        <v>94.409000000000006</v>
+        <v>95.591499999999996</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>19.986000000000001</v>
+        <v>19.9998</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7375,20 +4765,20 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>115.59</v>
+        <v>114.3797</v>
       </c>
       <c r="C16">
-        <v>97.093000000000004</v>
+        <v>98.005700000000004</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16">
-        <v>19.972000000000001</v>
+        <v>19.929500000000001</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -7397,20 +4787,20 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>121.78</v>
+        <v>119.676</v>
       </c>
       <c r="C17">
-        <v>103.29</v>
+        <v>103.30200000000001</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17">
-        <v>19.998999999999999</v>
+        <v>19.982500000000002</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -7419,20 +4809,20 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>122.18</v>
+        <v>120.33110000000001</v>
       </c>
       <c r="C18">
-        <v>103.68</v>
+        <v>103.9571</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>19.997</v>
+        <v>19.9146</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -7441,20 +4831,20 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>124.11</v>
+        <v>121.9676</v>
       </c>
       <c r="C19">
-        <v>105.62</v>
+        <v>105.5936</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>19.437000000000001</v>
+        <v>19.119399999999999</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -7463,20 +4853,20 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>125.77</v>
+        <v>129.9162</v>
       </c>
       <c r="C20">
-        <v>107.28</v>
+        <v>113.54219999999999</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>15.901</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -7493,7 +4883,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -7532,13 +4922,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>1.2685999999999999</v>
-      </c>
-      <c r="D24" s="9">
+        <v>1.0230999999999999</v>
+      </c>
+      <c r="D24" s="14">
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>7.5236999999999998</v>
+        <v>7.2484999999999999</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7552,16 +4942,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="3">
-        <v>1.8601000000000001</v>
+        <v>5.0853000000000002</v>
       </c>
       <c r="C25" s="3">
-        <v>3.1286</v>
-      </c>
-      <c r="D25" s="9">
+        <v>6.1083999999999996</v>
+      </c>
+      <c r="D25" s="14">
         <v>8</v>
       </c>
       <c r="E25" s="3">
-        <v>5.1520999999999999</v>
+        <v>4.1151</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -7575,16 +4965,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>66.606999999999999</v>
+        <v>66.799499999999995</v>
       </c>
       <c r="C26" s="2">
-        <v>67.875</v>
+        <v>67.822599999999994</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
       </c>
       <c r="E26" s="2">
-        <v>13.747</v>
+        <v>13.743</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -7598,16 +4988,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>67.153000000000006</v>
+        <v>67.809299999999993</v>
       </c>
       <c r="C27" s="2">
-        <v>68.421999999999997</v>
+        <v>68.832400000000007</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="2">
-        <v>13.228</v>
+        <v>13.0314</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -7621,16 +5011,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>182.21</v>
+        <v>182.45230000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>183.48</v>
+        <v>183.4753</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>19.972999999999999</v>
+        <v>19.978200000000001</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -7644,16 +5034,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>185.69</v>
+        <v>186.25579999999999</v>
       </c>
       <c r="C29" s="2">
-        <v>186.95</v>
+        <v>187.27889999999999</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
       </c>
       <c r="E29" s="2">
-        <v>20</v>
+        <v>19.945599999999999</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -7667,16 +5057,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>186.94</v>
+        <v>187.1765</v>
       </c>
       <c r="C30" s="2">
-        <v>188.21</v>
+        <v>188.1996</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
       </c>
       <c r="E30" s="2">
-        <v>19.998000000000001</v>
+        <v>19.931899999999999</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -7686,20 +5076,20 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>8</v>
       </c>
       <c r="B31">
-        <v>189.54</v>
+        <v>189.7458</v>
       </c>
       <c r="C31">
-        <v>190.8</v>
+        <v>190.7689</v>
       </c>
       <c r="D31" s="2">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>19.972799999999999</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -7716,7 +5106,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -7755,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>-18.574000000000002</v>
-      </c>
-      <c r="D35" s="13">
+        <v>-20.100300000000001</v>
+      </c>
+      <c r="D35" s="10">
         <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>7.2702999999999998</v>
+        <v>7.7061000000000002</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -7775,16 +5165,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <v>5.0655999999999999</v>
+        <v>9.5244999999999997</v>
       </c>
       <c r="C36" s="1">
-        <v>-13.509</v>
+        <v>-10.575799999999999</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>7.8781999999999996</v>
+        <v>8.1731999999999996</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -7798,16 +5188,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="2">
-        <v>18.736000000000001</v>
+        <v>17.2151</v>
       </c>
       <c r="C37" s="2">
-        <v>0.16123000000000001</v>
-      </c>
-      <c r="D37" s="2">
+        <v>-2.8853</v>
+      </c>
+      <c r="D37" s="11">
         <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>9.6175999999999995</v>
+        <v>9.3687000000000005</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -7820,16 +5210,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>19.648</v>
+        <v>20.284600000000001</v>
       </c>
       <c r="C38" s="2">
-        <v>1.0736000000000001</v>
-      </c>
-      <c r="D38" s="2">
+        <v>0.1842</v>
+      </c>
+      <c r="D38" s="15">
         <v>2</v>
       </c>
       <c r="E38" s="2">
-        <v>9.0079999999999991</v>
+        <v>8.9353999999999996</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -7842,16 +5232,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>71.677000000000007</v>
+        <v>73.4178</v>
       </c>
       <c r="C39" s="2">
-        <v>53.101999999999997</v>
+        <v>53.317500000000003</v>
       </c>
       <c r="D39" s="2">
         <v>7</v>
       </c>
       <c r="E39" s="2">
-        <v>9.6539999999999999</v>
+        <v>9.5916999999999994</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -7864,16 +5254,16 @@
         <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>155.27000000000001</v>
+        <v>156.83680000000001</v>
       </c>
       <c r="C40" s="2">
-        <v>136.69999999999999</v>
+        <v>136.73650000000001</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
       </c>
       <c r="E40" s="2">
-        <v>11.343999999999999</v>
+        <v>11.459199999999999</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -7886,16 +5276,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="2">
-        <v>158.46</v>
+        <v>160.7458</v>
       </c>
       <c r="C41" s="2">
-        <v>139.88999999999999</v>
+        <v>140.6455</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
       </c>
       <c r="E41" s="2">
-        <v>19.998000000000001</v>
+        <v>15.876099999999999</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -7904,20 +5294,20 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>8</v>
       </c>
       <c r="B42">
-        <v>174.61</v>
+        <v>175.40469999999999</v>
       </c>
       <c r="C42">
-        <v>156.04</v>
+        <v>155.30439999999999</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>19.998000000000001</v>
+        <v>19.308</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -7934,7 +5324,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -7972,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>-1.3219000000000001</v>
-      </c>
-      <c r="D46" s="3">
+        <v>-2.6400999999999999</v>
+      </c>
+      <c r="D46" s="14">
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>5.8688000000000002</v>
+        <v>7.2355</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -7991,16 +5381,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="3">
-        <v>2.4769999999999999</v>
+        <v>2.5255000000000001</v>
       </c>
       <c r="C47" s="3">
-        <v>1.1551</v>
+        <v>-0.11459999999999999</v>
       </c>
       <c r="D47" s="9">
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>3.9622999999999999</v>
+        <v>5.7317</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -8015,16 +5405,16 @@
         <v>3</v>
       </c>
       <c r="B48" s="2">
-        <v>64.690100000000001</v>
+        <v>65.900999999999996</v>
       </c>
       <c r="C48" s="2">
-        <v>63.368200000000002</v>
+        <v>63.260899999999999</v>
       </c>
       <c r="D48" s="2">
         <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>13.713200000000001</v>
+        <v>13.434200000000001</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -8039,16 +5429,16 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>65.002600000000001</v>
+        <v>66.111900000000006</v>
       </c>
       <c r="C49" s="2">
-        <v>63.680599999999998</v>
-      </c>
-      <c r="D49" s="2">
+        <v>63.471800000000002</v>
+      </c>
+      <c r="D49" s="15">
         <v>2</v>
       </c>
       <c r="E49" s="2">
-        <v>13.3607</v>
+        <v>13.2867</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -8063,16 +5453,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>182.00040000000001</v>
+        <v>182.9616</v>
       </c>
       <c r="C50" s="2">
-        <v>180.67850000000001</v>
+        <v>180.32159999999999</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>19.987400000000001</v>
+        <v>19.921600000000002</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -8087,16 +5477,16 @@
         <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>184.03110000000001</v>
+        <v>185.13290000000001</v>
       </c>
       <c r="C51" s="2">
-        <v>182.70910000000001</v>
+        <v>182.49279999999999</v>
       </c>
       <c r="D51" s="2">
         <v>4</v>
       </c>
       <c r="E51" s="2">
-        <v>19.988600000000002</v>
+        <v>19.9682</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -8111,16 +5501,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="2">
-        <v>185.2903</v>
+        <v>189.69550000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>183.9684</v>
+        <v>187.05539999999999</v>
       </c>
       <c r="D52" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2">
-        <v>19.990600000000001</v>
+        <v>19.972000000000001</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -8131,20 +5521,20 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>8</v>
       </c>
       <c r="B53">
-        <v>187.73699999999999</v>
+        <v>191.4657</v>
       </c>
       <c r="C53">
-        <v>186.4151</v>
+        <v>188.82560000000001</v>
       </c>
       <c r="D53" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>19.987500000000001</v>
+        <v>15.9171</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -8972,416 +6362,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78298197-C86E-AC46-A2F8-46506EC0A1EF}">
-  <dimension ref="A1:G35"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74687FFF-C15E-0148-8393-75060C690322}">
+  <dimension ref="A3:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-28.375</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-27.48</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.8875999999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-26.487500000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.7587000000000002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-25.616299999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3.8462999999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-24.528700000000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4.3231000000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-24.052</v>
-      </c>
-      <c r="D10" s="1">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.6753999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-23.6997</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6.4433999999999996</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-21.931699999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>14.5528</v>
+      </c>
+      <c r="C4">
+        <v>14.5915</v>
+      </c>
+      <c r="D4">
+        <v>14.5533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="D5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.14330000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1.04E-2</v>
+      </c>
+      <c r="C7">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0.1052</v>
+      </c>
+      <c r="C8">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.1057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.55740000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.60729999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D11">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>22.0182</v>
-      </c>
-      <c r="C13">
-        <v>-6.3567999999999998</v>
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.4869000000000002E-4</v>
       </c>
       <c r="D13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>22.245999999999999</v>
-      </c>
-      <c r="C14">
-        <v>-6.1291000000000002</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>22.4617</v>
+        <v>0.81120000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-22.749199999999998</v>
       </c>
       <c r="C15">
-        <v>-5.9132999999999996</v>
+        <v>-22.647099999999998</v>
       </c>
       <c r="D15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>23.342099999999999</v>
-      </c>
-      <c r="C16">
-        <v>-5.0328999999999997</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>23.885400000000001</v>
-      </c>
-      <c r="C17">
-        <v>-4.4896000000000003</v>
-      </c>
-      <c r="D17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>24.5427</v>
-      </c>
-      <c r="C18">
-        <v>-3.8323</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>24.6708</v>
-      </c>
-      <c r="C19">
-        <v>-3.7042000000000002</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>25.709399999999999</v>
-      </c>
-      <c r="C20">
-        <v>-2.6657000000000002</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>26.177800000000001</v>
-      </c>
-      <c r="C21">
-        <v>-2.1972</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>42.709499999999998</v>
-      </c>
-      <c r="C22">
-        <v>14.3344</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>43.782400000000003</v>
-      </c>
-      <c r="C23">
-        <v>15.407400000000001</v>
-      </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>49.3095</v>
-      </c>
-      <c r="C24">
-        <v>20.9345</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>50.249899999999997</v>
-      </c>
-      <c r="C25">
-        <v>21.8749</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>50.479900000000001</v>
-      </c>
-      <c r="C26">
-        <v>22.104900000000001</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>51.547600000000003</v>
-      </c>
-      <c r="C27">
-        <v>23.172599999999999</v>
-      </c>
-      <c r="D27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>54.120800000000003</v>
-      </c>
-      <c r="C28">
-        <v>25.745799999999999</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <v>54.289700000000003</v>
-      </c>
-      <c r="C29">
-        <v>25.9147</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>-22.7317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HistonesXenopus_results.xlsx
+++ b/HistonesXenopus_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.schuh/Documents/GitHub/HistonesXenopus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FC4A6-7011-394A-ABFE-AD1074E1ED88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1C2063-2DDF-5B41-806C-1F1F0F71CB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="27180" windowHeight="16040" activeTab="2" xr2:uid="{BBDED220-849E-C84B-A5AC-3A5366055C07}"/>
+    <workbookView xWindow="280" yWindow="-18840" windowWidth="27180" windowHeight="16040" activeTab="1" xr2:uid="{BBDED220-849E-C84B-A5AC-3A5366055C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC4CCB-3522-B443-8ADE-69268C892371}">
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,11 +1851,21 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-24.571899999999999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1">
+        <v>73.956000000000003</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1864,11 +1874,21 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.7812999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-21.790600000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>87.483999999999995</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1877,11 +1897,21 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.6840999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-20.887799999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>48.524000000000001</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1890,11 +1920,21 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3.8976000000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-20.674299999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1">
+        <v>81.626999999999995</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1903,11 +1943,21 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.3129999999999997</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-19.258900000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>119.8</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1916,11 +1966,21 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.6874000000000002</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-18.884499999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>74.120999999999995</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1928,11 +1988,21 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6.2386999999999997</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-18.333200000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3">
+        <v>97.677999999999997</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1940,11 +2010,21 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="3">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3">
+        <v>8.7860999999999994</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-15.7858</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>97.316999999999993</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1952,6 +2032,21 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>10.376799999999999</v>
+      </c>
+      <c r="C42">
+        <v>-14.1951</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>19.821999999999999</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1959,6 +2054,21 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>12.4152</v>
+      </c>
+      <c r="C43">
+        <v>-12.1568</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>19.835999999999999</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1966,6 +2076,21 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>25.3948</v>
+      </c>
+      <c r="C44">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>94.88</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1973,6 +2098,21 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>25.512799999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>102.07</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1980,6 +2120,21 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>25.534500000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>72.046000000000006</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1987,7 +2142,21 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E47" s="6"/>
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>25.957100000000001</v>
+      </c>
+      <c r="C47">
+        <v>1.3852</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="E47" s="6">
+        <v>7487300</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1995,7 +2164,21 @@
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E48" s="6"/>
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>27.2822</v>
+      </c>
+      <c r="C48">
+        <v>2.7103000000000002</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
+        <v>27181000</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2003,6 +2186,21 @@
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>28.431799999999999</v>
+      </c>
+      <c r="C49">
+        <v>3.8599000000000001</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>43.825000000000003</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2010,7 +2208,21 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E50" s="6"/>
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>28.625499999999999</v>
+      </c>
+      <c r="C50">
+        <v>4.0534999999999997</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1876100000</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2018,6 +2230,21 @@
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>29.097000000000001</v>
+      </c>
+      <c r="C51">
+        <v>4.5251000000000001</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>95.739000000000004</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2025,6 +2252,21 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>29.721800000000002</v>
+      </c>
+      <c r="C52">
+        <v>5.1498999999999997</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>19.827000000000002</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2032,7 +2274,21 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E53" s="6"/>
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>30.133299999999998</v>
+      </c>
+      <c r="C53">
+        <v>5.5613999999999999</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6">
+        <v>442010</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2040,7 +2296,21 @@
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E54" s="6"/>
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>53.241799999999998</v>
+      </c>
+      <c r="C54">
+        <v>28.669899999999998</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4688900000</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2048,7 +2318,21 @@
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E55" s="6"/>
+      <c r="A55">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>54.191000000000003</v>
+      </c>
+      <c r="C55">
+        <v>29.6191</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" s="6">
+        <v>9892200</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2056,7 +2340,21 @@
       <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E56" s="6"/>
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>54.419199999999996</v>
+      </c>
+      <c r="C56">
+        <v>29.847300000000001</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6">
+        <v>9328300000</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2064,7 +2362,21 @@
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E57" s="6"/>
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>58.076000000000001</v>
+      </c>
+      <c r="C57">
+        <v>33.504100000000001</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6">
+        <v>301970</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2072,7 +2384,21 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E58" s="6"/>
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>58.2241</v>
+      </c>
+      <c r="C58">
+        <v>33.652200000000001</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>12964000</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2126,11 +2452,21 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="7"/>
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-24.577000000000002</v>
+      </c>
+      <c r="D63" s="1">
+        <v>14</v>
+      </c>
+      <c r="E63" s="7">
+        <v>334130</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2139,11 +2475,21 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.97726999999999997</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-23.6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1">
+        <v>55819</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2152,11 +2498,21 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="7"/>
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.9655</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-22.611999999999998</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15</v>
+      </c>
+      <c r="E65" s="7">
+        <v>4574000</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2165,11 +2521,21 @@
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="7"/>
+      <c r="A66" s="1">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2.8323</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-21.745000000000001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="7">
+        <v>3153500</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2178,11 +2544,21 @@
       <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="7"/>
+      <c r="A67" s="1">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3.8389000000000002</v>
+      </c>
+      <c r="C67" s="1">
+        <v>-20.738</v>
+      </c>
+      <c r="D67" s="1">
+        <v>24</v>
+      </c>
+      <c r="E67" s="7">
+        <v>514750</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2191,11 +2567,21 @@
       <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="7"/>
+      <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.2644000000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>-20.312999999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>25</v>
+      </c>
+      <c r="E68" s="7">
+        <v>21266000</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2203,11 +2589,21 @@
       <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="1">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4.7944000000000004</v>
+      </c>
+      <c r="C69" s="1">
+        <v>-19.783000000000001</v>
+      </c>
+      <c r="D69" s="1">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7">
+        <v>185640</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2215,11 +2611,21 @@
       <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-17.962</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3">
+        <v>7204</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2227,11 +2633,21 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>10.807</v>
+      </c>
+      <c r="C71" s="2">
+        <v>-13.771000000000001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.1733</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2239,6 +2655,21 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>12.935</v>
+      </c>
+      <c r="C72">
+        <v>-11.641999999999999</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>1.3315999999999999</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2246,7 +2677,21 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E73" s="6"/>
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>22.100999999999999</v>
+      </c>
+      <c r="C73">
+        <v>-2.4761000000000002</v>
+      </c>
+      <c r="D73">
+        <v>23</v>
+      </c>
+      <c r="E73" s="6">
+        <v>771490</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2254,6 +2699,21 @@
       <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>22.329000000000001</v>
+      </c>
+      <c r="C74">
+        <v>-2.2479</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>16362</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2261,6 +2721,21 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>22.536000000000001</v>
+      </c>
+      <c r="C75">
+        <v>-2.0409000000000002</v>
+      </c>
+      <c r="D75">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>13853</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2268,7 +2743,21 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E76" s="6"/>
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>23.425999999999998</v>
+      </c>
+      <c r="C76">
+        <v>-1.1515</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76" s="6">
+        <v>718260</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2276,7 +2765,21 @@
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E77" s="6"/>
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>23.954000000000001</v>
+      </c>
+      <c r="C77">
+        <v>-0.62294000000000005</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77" s="6">
+        <v>221090</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2284,6 +2787,21 @@
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>24.616</v>
+      </c>
+      <c r="C78">
+        <v>3.9018999999999998E-2</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>30326</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2291,7 +2809,21 @@
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E79" s="6"/>
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>24.75</v>
+      </c>
+      <c r="C79">
+        <v>0.17249</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2182500</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2299,6 +2831,21 @@
       <c r="K79" s="8"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>25.783000000000001</v>
+      </c>
+      <c r="C80">
+        <v>1.2053</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>99870</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2306,7 +2853,21 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E81" s="6"/>
+      <c r="A81">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>26.266999999999999</v>
+      </c>
+      <c r="C81">
+        <v>1.6896</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1004400</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2314,6 +2875,21 @@
       <c r="K81" s="8"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20</v>
+      </c>
+      <c r="B82">
+        <v>28.103000000000002</v>
+      </c>
+      <c r="C82">
+        <v>3.5251999999999999</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>1.4636</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2321,7 +2897,21 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E83" s="6"/>
+      <c r="A83">
+        <v>21</v>
+      </c>
+      <c r="B83">
+        <v>49.384</v>
+      </c>
+      <c r="C83">
+        <v>24.806999999999999</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83" s="6">
+        <v>551470</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -2329,7 +2919,21 @@
       <c r="K83" s="8"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E84" s="6"/>
+      <c r="A84">
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>50.33</v>
+      </c>
+      <c r="C84">
+        <v>25.751999999999999</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1430300</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2337,7 +2941,21 @@
       <c r="K84" s="8"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E85" s="6"/>
+      <c r="A85">
+        <v>23</v>
+      </c>
+      <c r="B85">
+        <v>50.567</v>
+      </c>
+      <c r="C85">
+        <v>25.99</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>19143000000</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2345,7 +2963,21 @@
       <c r="K85" s="8"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E86" s="6"/>
+      <c r="A86">
+        <v>24</v>
+      </c>
+      <c r="B86">
+        <v>54.213000000000001</v>
+      </c>
+      <c r="C86">
+        <v>29.635999999999999</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1485600</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -2353,7 +2985,21 @@
       <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E87" s="6"/>
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87">
+        <v>54.369</v>
+      </c>
+      <c r="C87">
+        <v>29.791</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="6">
+        <v>920050</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2407,11 +3053,21 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>-20.69</v>
+      </c>
+      <c r="D92" s="1">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1">
+        <v>73.975999999999999</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2420,11 +3076,21 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="A93" s="3">
+        <v>2</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2.4731000000000001</v>
+      </c>
+      <c r="C93" s="3">
+        <v>-18.216999999999999</v>
+      </c>
+      <c r="D93" s="3">
+        <v>20</v>
+      </c>
+      <c r="E93" s="3">
+        <v>72.314999999999998</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -2433,11 +3099,21 @@
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="A94" s="3">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3.7713000000000001</v>
+      </c>
+      <c r="C94" s="3">
+        <v>-16.919</v>
+      </c>
+      <c r="D94" s="3">
+        <v>24</v>
+      </c>
+      <c r="E94" s="3">
+        <v>74.372</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2446,11 +3122,21 @@
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="A95" s="3">
+        <v>4</v>
+      </c>
+      <c r="B95" s="3">
+        <v>3.8618000000000001</v>
+      </c>
+      <c r="C95" s="3">
+        <v>-16.829000000000001</v>
+      </c>
+      <c r="D95" s="3">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3">
+        <v>73.795000000000002</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -2459,11 +3145,21 @@
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="A96" s="3">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5.1664000000000003</v>
+      </c>
+      <c r="C96" s="3">
+        <v>-15.523999999999999</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>67.572000000000003</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -2472,11 +3168,21 @@
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="A97" s="3">
+        <v>6</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5.7003000000000004</v>
+      </c>
+      <c r="C97" s="3">
+        <v>-14.99</v>
+      </c>
+      <c r="D97" s="3">
+        <v>9</v>
+      </c>
+      <c r="E97" s="3">
+        <v>73.349999999999994</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -2484,11 +3190,21 @@
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="A98" s="3">
+        <v>7</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6.1311999999999998</v>
+      </c>
+      <c r="C98" s="3">
+        <v>-14.558999999999999</v>
+      </c>
+      <c r="D98" s="3">
+        <v>25</v>
+      </c>
+      <c r="E98" s="3">
+        <v>92.367000000000004</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -2496,11 +3212,21 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="A99" s="3">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6.4702999999999999</v>
+      </c>
+      <c r="C99" s="3">
+        <v>-14.22</v>
+      </c>
+      <c r="D99" s="3">
+        <v>19</v>
+      </c>
+      <c r="E99" s="3">
+        <v>6.9627999999999997</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -2508,11 +3234,21 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="A100" s="3">
+        <v>9</v>
+      </c>
+      <c r="B100" s="3">
+        <v>7.1882000000000001</v>
+      </c>
+      <c r="C100" s="3">
+        <v>-13.502000000000001</v>
+      </c>
+      <c r="D100" s="3">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.6336000000000002E-2</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -2520,11 +3256,21 @@
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="A101" s="3">
+        <v>10</v>
+      </c>
+      <c r="B101" s="3">
+        <v>8.7565000000000008</v>
+      </c>
+      <c r="C101" s="3">
+        <v>-11.933999999999999</v>
+      </c>
+      <c r="D101" s="3">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3">
+        <v>97.063999999999993</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -2532,6 +3278,21 @@
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>25.356999999999999</v>
+      </c>
+      <c r="C102">
+        <v>4.6664000000000003</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>89.141999999999996</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -2539,6 +3300,21 @@
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>25.451000000000001</v>
+      </c>
+      <c r="C103">
+        <v>4.7602000000000002</v>
+      </c>
+      <c r="D103">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>91.564999999999998</v>
+      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -2546,6 +3322,21 @@
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <v>25.506</v>
+      </c>
+      <c r="C104">
+        <v>4.8155999999999999</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+      <c r="E104">
+        <v>57.136000000000003</v>
+      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -2553,7 +3344,21 @@
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E105" s="6"/>
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>25.960999999999999</v>
+      </c>
+      <c r="C105">
+        <v>5.2701000000000002</v>
+      </c>
+      <c r="D105">
+        <v>23</v>
+      </c>
+      <c r="E105" s="6">
+        <v>485330</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -2561,6 +3366,21 @@
       <c r="K105" s="8"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>26.393000000000001</v>
+      </c>
+      <c r="C106">
+        <v>5.7023000000000001</v>
+      </c>
+      <c r="D106">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>9.2583000000000002</v>
+      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -2568,7 +3388,21 @@
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E107" s="6"/>
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>27.277000000000001</v>
+      </c>
+      <c r="C107">
+        <v>6.5861999999999998</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1138800</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -2576,6 +3410,21 @@
       <c r="K107" s="8"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>28.417000000000002</v>
+      </c>
+      <c r="C108">
+        <v>7.7267999999999999</v>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>43.048000000000002</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -2583,7 +3432,21 @@
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E109" s="6"/>
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <v>28.617000000000001</v>
+      </c>
+      <c r="C109">
+        <v>7.9264000000000001</v>
+      </c>
+      <c r="D109">
+        <v>13</v>
+      </c>
+      <c r="E109" s="6">
+        <v>582840</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -2591,6 +3454,21 @@
       <c r="K109" s="8"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="B110">
+        <v>29.047000000000001</v>
+      </c>
+      <c r="C110">
+        <v>8.3564000000000007</v>
+      </c>
+      <c r="D110">
+        <v>22</v>
+      </c>
+      <c r="E110">
+        <v>101.38</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -2598,7 +3476,21 @@
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E111" s="6"/>
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>30.122</v>
+      </c>
+      <c r="C111">
+        <v>9.4318000000000008</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" s="6">
+        <v>444650</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -2606,7 +3498,21 @@
       <c r="K111" s="8"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E112" s="6"/>
+      <c r="A112">
+        <v>21</v>
+      </c>
+      <c r="B112">
+        <v>53.25</v>
+      </c>
+      <c r="C112">
+        <v>32.56</v>
+      </c>
+      <c r="D112">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6">
+        <v>306350</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -2614,7 +3520,21 @@
       <c r="K112" s="8"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E113" s="6"/>
+      <c r="A113">
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>54.192999999999998</v>
+      </c>
+      <c r="C113">
+        <v>33.502000000000002</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2802000000</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -2622,7 +3542,21 @@
       <c r="K113" s="8"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E114" s="6"/>
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="B114">
+        <v>54.415999999999997</v>
+      </c>
+      <c r="C114">
+        <v>33.725999999999999</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6">
+        <v>4960500</v>
+      </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -2630,7 +3564,21 @@
       <c r="K114" s="8"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E115" s="6"/>
+      <c r="A115">
+        <v>24</v>
+      </c>
+      <c r="B115">
+        <v>58.073999999999998</v>
+      </c>
+      <c r="C115">
+        <v>37.384</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115" s="6">
+        <v>315970</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -2638,7 +3586,21 @@
       <c r="K115" s="8"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E116" s="6"/>
+      <c r="A116">
+        <v>25</v>
+      </c>
+      <c r="B116">
+        <v>58.212000000000003</v>
+      </c>
+      <c r="C116">
+        <v>37.521999999999998</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" s="6">
+        <v>29778000</v>
+      </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -2692,11 +3654,21 @@
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>-24.504000000000001</v>
+      </c>
+      <c r="D121" s="1">
+        <v>14</v>
+      </c>
+      <c r="E121" s="1">
+        <v>71.204999999999998</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -2705,11 +3677,21 @@
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2.4083000000000001</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-22.096</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1">
+        <v>71.61</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -2718,11 +3700,21 @@
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3.7746</v>
+      </c>
+      <c r="C123" s="1">
+        <v>-20.728999999999999</v>
+      </c>
+      <c r="D123" s="1">
+        <v>24</v>
+      </c>
+      <c r="E123" s="1">
+        <v>72.298000000000002</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -2731,11 +3723,21 @@
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3.8340999999999998</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-20.67</v>
+      </c>
+      <c r="D124" s="1">
+        <v>15</v>
+      </c>
+      <c r="E124" s="1">
+        <v>75.697999999999993</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -2744,11 +3746,21 @@
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="A125" s="1">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5.1067</v>
+      </c>
+      <c r="C125" s="1">
+        <v>-19.396999999999998</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>70.676000000000002</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -2757,11 +3769,21 @@
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="A126" s="1">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5.6557000000000004</v>
+      </c>
+      <c r="C126" s="1">
+        <v>-18.847999999999999</v>
+      </c>
+      <c r="D126" s="1">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1">
+        <v>71.98</v>
+      </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -2769,11 +3791,21 @@
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="A127" s="3">
+        <v>7</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6.1413000000000002</v>
+      </c>
+      <c r="C127" s="3">
+        <v>-18.363</v>
+      </c>
+      <c r="D127" s="3">
+        <v>25</v>
+      </c>
+      <c r="E127" s="3">
+        <v>96.554000000000002</v>
+      </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -2781,11 +3813,21 @@
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="A128" s="3">
+        <v>8</v>
+      </c>
+      <c r="B128" s="3">
+        <v>6.5682999999999998</v>
+      </c>
+      <c r="C128" s="3">
+        <v>-17.936</v>
+      </c>
+      <c r="D128" s="3">
+        <v>19</v>
+      </c>
+      <c r="E128" s="3">
+        <v>8.4201999999999995</v>
+      </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -2793,11 +3835,21 @@
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="A129" s="3">
+        <v>9</v>
+      </c>
+      <c r="B129" s="3">
+        <v>8.6107999999999993</v>
+      </c>
+      <c r="C129" s="3">
+        <v>-15.893000000000001</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4</v>
+      </c>
+      <c r="E129" s="3">
+        <v>4.0175000000000001</v>
+      </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -2805,11 +3857,21 @@
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="A130" s="3">
+        <v>10</v>
+      </c>
+      <c r="B130" s="3">
+        <v>8.6929999999999996</v>
+      </c>
+      <c r="C130" s="3">
+        <v>-15.811</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3">
+        <v>94.335999999999999</v>
+      </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -2817,6 +3879,21 @@
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>11</v>
+      </c>
+      <c r="B131">
+        <v>25.300999999999998</v>
+      </c>
+      <c r="C131">
+        <v>0.79744999999999999</v>
+      </c>
+      <c r="D131">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>76.019000000000005</v>
+      </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -2824,6 +3901,21 @@
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>12</v>
+      </c>
+      <c r="B132">
+        <v>25.369</v>
+      </c>
+      <c r="C132">
+        <v>0.86504999999999999</v>
+      </c>
+      <c r="D132">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>66.257000000000005</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -2831,6 +3923,21 @@
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>13</v>
+      </c>
+      <c r="B133">
+        <v>25.481000000000002</v>
+      </c>
+      <c r="C133">
+        <v>0.97758</v>
+      </c>
+      <c r="D133">
+        <v>21</v>
+      </c>
+      <c r="E133">
+        <v>59.722000000000001</v>
+      </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -2838,7 +3945,21 @@
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E134" s="6"/>
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>25.904</v>
+      </c>
+      <c r="C134">
+        <v>1.4001999999999999</v>
+      </c>
+      <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134" s="6">
+        <v>491220</v>
+      </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -2846,6 +3967,21 @@
       <c r="K134" s="8"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135">
+        <v>26.353999999999999</v>
+      </c>
+      <c r="C135">
+        <v>1.8496999999999999</v>
+      </c>
+      <c r="D135">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>9.6039999999999992</v>
+      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -2853,7 +3989,21 @@
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E136" s="6"/>
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136">
+        <v>27.228000000000002</v>
+      </c>
+      <c r="C136">
+        <v>2.7241</v>
+      </c>
+      <c r="D136">
+        <v>8</v>
+      </c>
+      <c r="E136" s="6">
+        <v>472010</v>
+      </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -2861,6 +4011,21 @@
       <c r="K136" s="8"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>17</v>
+      </c>
+      <c r="B137">
+        <v>28.36</v>
+      </c>
+      <c r="C137">
+        <v>3.8565999999999998</v>
+      </c>
+      <c r="D137">
+        <v>12</v>
+      </c>
+      <c r="E137">
+        <v>41.908000000000001</v>
+      </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -2868,7 +4033,21 @@
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E138" s="6"/>
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="C138">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138" s="6">
+        <v>425700</v>
+      </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -2876,6 +4055,21 @@
       <c r="K138" s="8"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>19</v>
+      </c>
+      <c r="B139">
+        <v>29.033999999999999</v>
+      </c>
+      <c r="C139">
+        <v>4.5305999999999997</v>
+      </c>
+      <c r="D139">
+        <v>22</v>
+      </c>
+      <c r="E139">
+        <v>103.61</v>
+      </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -2883,7 +4077,21 @@
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E140" s="6"/>
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>30.061</v>
+      </c>
+      <c r="C140">
+        <v>5.5568</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" s="6">
+        <v>918040</v>
+      </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -2891,7 +4099,21 @@
       <c r="K140" s="8"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E141" s="6"/>
+      <c r="A141">
+        <v>21</v>
+      </c>
+      <c r="B141">
+        <v>53.179000000000002</v>
+      </c>
+      <c r="C141">
+        <v>28.675999999999998</v>
+      </c>
+      <c r="D141">
+        <v>11</v>
+      </c>
+      <c r="E141" s="6">
+        <v>1516800</v>
+      </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -2899,7 +4121,21 @@
       <c r="K141" s="8"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E142" s="6"/>
+      <c r="A142">
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <v>54.140999999999998</v>
+      </c>
+      <c r="C142">
+        <v>29.637</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142" s="6">
+        <v>326670</v>
+      </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -2907,7 +4143,21 @@
       <c r="K142" s="8"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E143" s="6"/>
+      <c r="A143">
+        <v>23</v>
+      </c>
+      <c r="B143">
+        <v>54.353000000000002</v>
+      </c>
+      <c r="C143">
+        <v>29.849</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" s="6">
+        <v>2418100</v>
+      </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -2915,7 +4165,21 @@
       <c r="K143" s="8"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E144" s="6"/>
+      <c r="A144">
+        <v>24</v>
+      </c>
+      <c r="B144">
+        <v>58.017000000000003</v>
+      </c>
+      <c r="C144">
+        <v>33.512999999999998</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144" s="6">
+        <v>344620</v>
+      </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -2923,7 +4187,21 @@
       <c r="K144" s="8"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E145" s="6"/>
+      <c r="A145">
+        <v>25</v>
+      </c>
+      <c r="B145">
+        <v>58.165999999999997</v>
+      </c>
+      <c r="C145">
+        <v>33.662999999999997</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" s="6">
+        <v>5919800</v>
+      </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -4463,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547E4E20-3929-3140-B35D-82CB01EE3142}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
